--- a/ol-handback/dotnet/docs/master/handback-status.xlsx
+++ b/ol-handback/dotnet/docs/master/handback-status.xlsx
@@ -6,12 +6,12 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="fr-fr" sheetId="2" r:id="rId3"/>
-    <sheet name="zh-cn" sheetId="3" r:id="rId4"/>
-    <sheet name="it-it" sheetId="4" r:id="rId5"/>
-    <sheet name="de-de" sheetId="5" r:id="rId6"/>
-    <sheet name="es-es" sheetId="6" r:id="rId7"/>
-    <sheet name="ru-ru" sheetId="7" r:id="rId8"/>
+    <sheet name="it-it" sheetId="2" r:id="rId3"/>
+    <sheet name="fr-fr" sheetId="3" r:id="rId4"/>
+    <sheet name="de-de" sheetId="4" r:id="rId5"/>
+    <sheet name="es-es" sheetId="5" r:id="rId6"/>
+    <sheet name="ru-ru" sheetId="6" r:id="rId7"/>
+    <sheet name="zh-cn" sheetId="7" r:id="rId8"/>
     <sheet name="zh-tw" sheetId="8" r:id="rId9"/>
     <sheet name="ja-jp" sheetId="9" r:id="rId10"/>
     <sheet name="ko-kr" sheetId="10" r:id="rId11"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
   <si>
     <t>File Name</t>
   </si>
@@ -36,24 +36,24 @@
     <t>Publish URL</t>
   </si>
   <si>
+    <t>it-it</t>
+  </si>
+  <si>
     <t>fr-fr</t>
   </si>
   <si>
+    <t>de-de</t>
+  </si>
+  <si>
+    <t>es-es</t>
+  </si>
+  <si>
+    <t>ru-ru</t>
+  </si>
+  <si>
     <t>zh-cn</t>
   </si>
   <si>
-    <t>it-it</t>
-  </si>
-  <si>
-    <t>de-de</t>
-  </si>
-  <si>
-    <t>es-es</t>
-  </si>
-  <si>
-    <t>ru-ru</t>
-  </si>
-  <si>
     <t>zh-tw</t>
   </si>
   <si>
@@ -285,6 +285,99 @@
     <t>False</t>
   </si>
   <si>
+    <t>app-types.0987f6c1d2b5234f56598b7a3697680f81a70fef.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-05 05:44:24</t>
+  </si>
+  <si>
+    <t>2016-11-09 00:42:54</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>docs\core\deploying</t>
+  </si>
+  <si>
+    <t>reducing-dependencies.71640f63ca24d0088f5f9191f05950b16b59c636.it-it.xlf</t>
+  </si>
+  <si>
+    <t>sdk.9c3255d4577e69d6aee70730290944dc9d2da45d.it-it.xlf</t>
+  </si>
+  <si>
+    <t>docs\core\testing</t>
+  </si>
+  <si>
+    <t>index.874b2218474cbbb7738dd697aef54bd275718c7c.it-it.xlf</t>
+  </si>
+  <si>
+    <t>using-mstest-on-windows.be87ab01f91967df5135e0aadaef93c5bf6ee893.it-it.xlf</t>
+  </si>
+  <si>
+    <t>docs\core\tools</t>
+  </si>
+  <si>
+    <t>dotnet-new.1c4e72c8a865272c8db60fcd510833b3cc8c3f2b.it-it.xlf</t>
+  </si>
+  <si>
+    <t>telemetry.1c2d2f66e2f7ddb65a3162d84b46390eaf6c700e.it-it.xlf</t>
+  </si>
+  <si>
+    <t>test-protocol.a59cc173f516589fa2bcb6d209f8d7e699990a82.it-it.xlf</t>
+  </si>
+  <si>
+    <t>using-ci-with-cli.aeb9bf03ecb439e411bf19a7b3b234950e477308.it-it.xlf</t>
+  </si>
+  <si>
+    <t>docs\core\tutorials</t>
+  </si>
+  <si>
+    <t>aspnet-core.0ce12fb95da3389d420f8d760beddf56ba76296f.it-it.xlf</t>
+  </si>
+  <si>
+    <t>docs\framework\docker</t>
+  </si>
+  <si>
+    <t>index.e068a173b9e0c4eb4561e3c8ef11a0ad3f5fe9d7.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-10 19:00:06</t>
+  </si>
+  <si>
+    <t>docs\framework</t>
+  </si>
+  <si>
+    <t>index.e9afc9d665a11b202a45e0f2a7a130b8582edcab.it-it.xlf</t>
+  </si>
+  <si>
+    <t>docs\standard</t>
+  </si>
+  <si>
+    <t>ht-p2</t>
+  </si>
+  <si>
+    <t>assembly-format.28db1c2eee4969148649923b2c83a0f9d8295d92.it-it.xlf</t>
+  </si>
+  <si>
+    <t>async.3c115f3a785660b634cfc3d7818885703e4965aa.it-it.xlf</t>
+  </si>
+  <si>
+    <t>docs\standard\base-types</t>
+  </si>
+  <si>
+    <t>basic-string-operations.6ee636bae80b9d255320557a135d219a13065941.it-it.xlf</t>
+  </si>
+  <si>
+    <t>index.56cd399d5b6f858a76bd66ca94d84e5ab5c28ba1.it-it.xlf</t>
+  </si>
+  <si>
+    <t>index.b8d322cca13b7303167b216a3efe71db4e1687a1.it-it.xlf</t>
+  </si>
+  <si>
     <t>app-types.0987f6c1d2b5234f56598b7a3697680f81a70fef.fr-fr.xlf</t>
   </si>
   <si>
@@ -294,33 +387,18 @@
     <t>2016-11-09 00:42:47</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>docs\core\deploying</t>
-  </si>
-  <si>
     <t>reducing-dependencies.71640f63ca24d0088f5f9191f05950b16b59c636.fr-fr.xlf</t>
   </si>
   <si>
     <t>sdk.9c3255d4577e69d6aee70730290944dc9d2da45d.fr-fr.xlf</t>
   </si>
   <si>
-    <t>docs\core\testing</t>
-  </si>
-  <si>
     <t>index.874b2218474cbbb7738dd697aef54bd275718c7c.fr-fr.xlf</t>
   </si>
   <si>
     <t>using-mstest-on-windows.be87ab01f91967df5135e0aadaef93c5bf6ee893.fr-fr.xlf</t>
   </si>
   <si>
-    <t>docs\core\tools</t>
-  </si>
-  <si>
     <t>dotnet-new.1c4e72c8a865272c8db60fcd510833b3cc8c3f2b.fr-fr.xlf</t>
   </si>
   <si>
@@ -333,33 +411,18 @@
     <t>using-ci-with-cli.aeb9bf03ecb439e411bf19a7b3b234950e477308.fr-fr.xlf</t>
   </si>
   <si>
-    <t>docs\core\tutorials</t>
-  </si>
-  <si>
     <t>aspnet-core.0ce12fb95da3389d420f8d760beddf56ba76296f.fr-fr.xlf</t>
   </si>
   <si>
-    <t>docs\framework\docker</t>
-  </si>
-  <si>
     <t>index.e068a173b9e0c4eb4561e3c8ef11a0ad3f5fe9d7.fr-fr.xlf</t>
   </si>
   <si>
     <t>2016-11-10 14:14:48</t>
   </si>
   <si>
-    <t>docs\framework</t>
-  </si>
-  <si>
     <t>index.e9afc9d665a11b202a45e0f2a7a130b8582edcab.fr-fr.xlf</t>
   </si>
   <si>
-    <t>docs\standard</t>
-  </si>
-  <si>
-    <t>ht-p2</t>
-  </si>
-  <si>
     <t>assembly-format.28db1c2eee4969148649923b2c83a0f9d8295d92.fr-fr.xlf</t>
   </si>
   <si>
@@ -369,9 +432,6 @@
     <t>async.3c115f3a785660b634cfc3d7818885703e4965aa.fr-fr.xlf</t>
   </si>
   <si>
-    <t>docs\standard\base-types</t>
-  </si>
-  <si>
     <t>basic-string-operations.6ee636bae80b9d255320557a135d219a13065941.fr-fr.xlf</t>
   </si>
   <si>
@@ -405,6 +465,240 @@
     <t>index.b8d322cca13b7303167b216a3efe71db4e1687a1.fr-fr.xlf</t>
   </si>
   <si>
+    <t>app-types.0987f6c1d2b5234f56598b7a3697680f81a70fef.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-05 05:46:09</t>
+  </si>
+  <si>
+    <t>2016-11-09 00:43:00</t>
+  </si>
+  <si>
+    <t>reducing-dependencies.71640f63ca24d0088f5f9191f05950b16b59c636.de-de.xlf</t>
+  </si>
+  <si>
+    <t>sdk.9c3255d4577e69d6aee70730290944dc9d2da45d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>index.874b2218474cbbb7738dd697aef54bd275718c7c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>using-mstest-on-windows.be87ab01f91967df5135e0aadaef93c5bf6ee893.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dotnet-new.1c4e72c8a865272c8db60fcd510833b3cc8c3f2b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>telemetry.1c2d2f66e2f7ddb65a3162d84b46390eaf6c700e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>test-protocol.a59cc173f516589fa2bcb6d209f8d7e699990a82.de-de.xlf</t>
+  </si>
+  <si>
+    <t>using-ci-with-cli.aeb9bf03ecb439e411bf19a7b3b234950e477308.de-de.xlf</t>
+  </si>
+  <si>
+    <t>aspnet-core.0ce12fb95da3389d420f8d760beddf56ba76296f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>index.b8d322cca13b7303167b216a3efe71db4e1687a1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>docs\about</t>
+  </si>
+  <si>
+    <t>products.ebdb86234bc94877f6161f2a1a795c27bd341f8c.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-05 05:47:50</t>
+  </si>
+  <si>
+    <t>2016-11-10 10:28:24</t>
+  </si>
+  <si>
+    <t>app-types.0987f6c1d2b5234f56598b7a3697680f81a70fef.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-09 00:43:07</t>
+  </si>
+  <si>
+    <t>reducing-dependencies.71640f63ca24d0088f5f9191f05950b16b59c636.es-es.xlf</t>
+  </si>
+  <si>
+    <t>sdk.9c3255d4577e69d6aee70730290944dc9d2da45d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>index.874b2218474cbbb7738dd697aef54bd275718c7c.es-es.xlf</t>
+  </si>
+  <si>
+    <t>using-mstest-on-windows.be87ab01f91967df5135e0aadaef93c5bf6ee893.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dotnet-new.1c4e72c8a865272c8db60fcd510833b3cc8c3f2b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>telemetry.1c2d2f66e2f7ddb65a3162d84b46390eaf6c700e.es-es.xlf</t>
+  </si>
+  <si>
+    <t>test-protocol.a59cc173f516589fa2bcb6d209f8d7e699990a82.es-es.xlf</t>
+  </si>
+  <si>
+    <t>using-ci-with-cli.aeb9bf03ecb439e411bf19a7b3b234950e477308.es-es.xlf</t>
+  </si>
+  <si>
+    <t>aspnet-core.0ce12fb95da3389d420f8d760beddf56ba76296f.es-es.xlf</t>
+  </si>
+  <si>
+    <t>cli-console-app-tutorial-advanced.3f8c5ceafb1629abd38cbc215ac9732c5ffb3006.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-10 13:00:39</t>
+  </si>
+  <si>
+    <t>managing-package-dependency-versions.106313d312f08157767943a637cbc902d4a5d092.es-es.xlf</t>
+  </si>
+  <si>
+    <t>target-dotnetcore-with-msbuild.89a13906467e804ceb90862ef0993a92e3f97334.es-es.xlf</t>
+  </si>
+  <si>
+    <t>index.e068a173b9e0c4eb4561e3c8ef11a0ad3f5fe9d7.es-es.xlf</t>
+  </si>
+  <si>
+    <t>index.e9afc9d665a11b202a45e0f2a7a130b8582edcab.es-es.xlf</t>
+  </si>
+  <si>
+    <t>assembly-format.28db1c2eee4969148649923b2c83a0f9d8295d92.es-es.xlf</t>
+  </si>
+  <si>
+    <t>async.3c115f3a785660b634cfc3d7818885703e4965aa.es-es.xlf</t>
+  </si>
+  <si>
+    <t>basic-string-operations.6ee636bae80b9d255320557a135d219a13065941.es-es.xlf</t>
+  </si>
+  <si>
+    <t>index.56cd399d5b6f858a76bd66ca94d84e5ab5c28ba1.es-es.xlf</t>
+  </si>
+  <si>
+    <t>parsing-strings.76f17ccaf8b16766eb906d657216fb7cd537dee5.es-es.xlf</t>
+  </si>
+  <si>
+    <t>regex-examples.fe3792ccf9e541ce6747f3a5b296147f8a2a491f.es-es.xlf</t>
+  </si>
+  <si>
+    <t>class-libraries.7dadda8f3a69f2786b36b28fcabb59abbadd8677.es-es.xlf</t>
+  </si>
+  <si>
+    <t>commonly-used-collection-types.87b05596cbab370816c5e11832c8858aeaa2d9a1.es-es.xlf</t>
+  </si>
+  <si>
+    <t>framework-libraries.a910059a62e8080f3edc3e6a3141c5392e5f4840.es-es.xlf</t>
+  </si>
+  <si>
+    <t>unmanaged.bbfd2c5291e4fe5a7a8152017a43aa7a4e3e4b63.es-es.xlf</t>
+  </si>
+  <si>
+    <t>index.b8d322cca13b7303167b216a3efe71db4e1687a1.es-es.xlf</t>
+  </si>
+  <si>
+    <t>TOC.c5e56b4d05e38e466c0192461b6c26065f810c46.es-es.xlf</t>
+  </si>
+  <si>
+    <t>products.ebdb86234bc94877f6161f2a1a795c27bd341f8c.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-05 05:49:39</t>
+  </si>
+  <si>
+    <t>2016-11-10 10:28:32</t>
+  </si>
+  <si>
+    <t>app-types.0987f6c1d2b5234f56598b7a3697680f81a70fef.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-09 00:43:15</t>
+  </si>
+  <si>
+    <t>reducing-dependencies.71640f63ca24d0088f5f9191f05950b16b59c636.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>sdk.9c3255d4577e69d6aee70730290944dc9d2da45d.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>index.874b2218474cbbb7738dd697aef54bd275718c7c.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>using-mstest-on-windows.be87ab01f91967df5135e0aadaef93c5bf6ee893.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dotnet-new.1c4e72c8a865272c8db60fcd510833b3cc8c3f2b.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>telemetry.1c2d2f66e2f7ddb65a3162d84b46390eaf6c700e.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>test-protocol.a59cc173f516589fa2bcb6d209f8d7e699990a82.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>using-ci-with-cli.aeb9bf03ecb439e411bf19a7b3b234950e477308.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>aspnet-core.0ce12fb95da3389d420f8d760beddf56ba76296f.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>cli-console-app-tutorial-advanced.3f8c5ceafb1629abd38cbc215ac9732c5ffb3006.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-10 13:00:45</t>
+  </si>
+  <si>
+    <t>managing-package-dependency-versions.106313d312f08157767943a637cbc902d4a5d092.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>target-dotnetcore-with-msbuild.89a13906467e804ceb90862ef0993a92e3f97334.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>index.e068a173b9e0c4eb4561e3c8ef11a0ad3f5fe9d7.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>index.e9afc9d665a11b202a45e0f2a7a130b8582edcab.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>assembly-format.28db1c2eee4969148649923b2c83a0f9d8295d92.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>async.3c115f3a785660b634cfc3d7818885703e4965aa.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>basic-string-operations.6ee636bae80b9d255320557a135d219a13065941.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>index.56cd399d5b6f858a76bd66ca94d84e5ab5c28ba1.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>parsing-strings.76f17ccaf8b16766eb906d657216fb7cd537dee5.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>regex-examples.fe3792ccf9e541ce6747f3a5b296147f8a2a491f.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>class-libraries.7dadda8f3a69f2786b36b28fcabb59abbadd8677.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>commonly-used-collection-types.87b05596cbab370816c5e11832c8858aeaa2d9a1.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>framework-libraries.a910059a62e8080f3edc3e6a3141c5392e5f4840.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>unmanaged.bbfd2c5291e4fe5a7a8152017a43aa7a4e3e4b63.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>index.b8d322cca13b7303167b216a3efe71db4e1687a1.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>TOC.c5e56b4d05e38e466c0192461b6c26065f810c46.ru-ru.xlf</t>
+  </si>
+  <si>
     <t>app-types.0987f6c1d2b5234f56598b7a3697680f81a70fef.zh-cn.xlf</t>
   </si>
   <si>
@@ -481,288 +775,6 @@
   </si>
   <si>
     <t>index.b8d322cca13b7303167b216a3efe71db4e1687a1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>app-types.0987f6c1d2b5234f56598b7a3697680f81a70fef.it-it.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-05 05:44:24</t>
-  </si>
-  <si>
-    <t>2016-11-09 00:42:54</t>
-  </si>
-  <si>
-    <t>reducing-dependencies.71640f63ca24d0088f5f9191f05950b16b59c636.it-it.xlf</t>
-  </si>
-  <si>
-    <t>sdk.9c3255d4577e69d6aee70730290944dc9d2da45d.it-it.xlf</t>
-  </si>
-  <si>
-    <t>index.874b2218474cbbb7738dd697aef54bd275718c7c.it-it.xlf</t>
-  </si>
-  <si>
-    <t>using-mstest-on-windows.be87ab01f91967df5135e0aadaef93c5bf6ee893.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dotnet-new.1c4e72c8a865272c8db60fcd510833b3cc8c3f2b.it-it.xlf</t>
-  </si>
-  <si>
-    <t>telemetry.1c2d2f66e2f7ddb65a3162d84b46390eaf6c700e.it-it.xlf</t>
-  </si>
-  <si>
-    <t>test-protocol.a59cc173f516589fa2bcb6d209f8d7e699990a82.it-it.xlf</t>
-  </si>
-  <si>
-    <t>using-ci-with-cli.aeb9bf03ecb439e411bf19a7b3b234950e477308.it-it.xlf</t>
-  </si>
-  <si>
-    <t>aspnet-core.0ce12fb95da3389d420f8d760beddf56ba76296f.it-it.xlf</t>
-  </si>
-  <si>
-    <t>assembly-format.28db1c2eee4969148649923b2c83a0f9d8295d92.it-it.xlf</t>
-  </si>
-  <si>
-    <t>async.3c115f3a785660b634cfc3d7818885703e4965aa.it-it.xlf</t>
-  </si>
-  <si>
-    <t>basic-string-operations.6ee636bae80b9d255320557a135d219a13065941.it-it.xlf</t>
-  </si>
-  <si>
-    <t>index.b8d322cca13b7303167b216a3efe71db4e1687a1.it-it.xlf</t>
-  </si>
-  <si>
-    <t>app-types.0987f6c1d2b5234f56598b7a3697680f81a70fef.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-05 05:46:09</t>
-  </si>
-  <si>
-    <t>2016-11-09 00:43:00</t>
-  </si>
-  <si>
-    <t>reducing-dependencies.71640f63ca24d0088f5f9191f05950b16b59c636.de-de.xlf</t>
-  </si>
-  <si>
-    <t>sdk.9c3255d4577e69d6aee70730290944dc9d2da45d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>index.874b2218474cbbb7738dd697aef54bd275718c7c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>using-mstest-on-windows.be87ab01f91967df5135e0aadaef93c5bf6ee893.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dotnet-new.1c4e72c8a865272c8db60fcd510833b3cc8c3f2b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>telemetry.1c2d2f66e2f7ddb65a3162d84b46390eaf6c700e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>test-protocol.a59cc173f516589fa2bcb6d209f8d7e699990a82.de-de.xlf</t>
-  </si>
-  <si>
-    <t>using-ci-with-cli.aeb9bf03ecb439e411bf19a7b3b234950e477308.de-de.xlf</t>
-  </si>
-  <si>
-    <t>aspnet-core.0ce12fb95da3389d420f8d760beddf56ba76296f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>index.b8d322cca13b7303167b216a3efe71db4e1687a1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>docs\about</t>
-  </si>
-  <si>
-    <t>products.ebdb86234bc94877f6161f2a1a795c27bd341f8c.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-05 05:47:50</t>
-  </si>
-  <si>
-    <t>2016-11-10 10:28:24</t>
-  </si>
-  <si>
-    <t>app-types.0987f6c1d2b5234f56598b7a3697680f81a70fef.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-09 00:43:07</t>
-  </si>
-  <si>
-    <t>reducing-dependencies.71640f63ca24d0088f5f9191f05950b16b59c636.es-es.xlf</t>
-  </si>
-  <si>
-    <t>sdk.9c3255d4577e69d6aee70730290944dc9d2da45d.es-es.xlf</t>
-  </si>
-  <si>
-    <t>index.874b2218474cbbb7738dd697aef54bd275718c7c.es-es.xlf</t>
-  </si>
-  <si>
-    <t>using-mstest-on-windows.be87ab01f91967df5135e0aadaef93c5bf6ee893.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dotnet-new.1c4e72c8a865272c8db60fcd510833b3cc8c3f2b.es-es.xlf</t>
-  </si>
-  <si>
-    <t>telemetry.1c2d2f66e2f7ddb65a3162d84b46390eaf6c700e.es-es.xlf</t>
-  </si>
-  <si>
-    <t>test-protocol.a59cc173f516589fa2bcb6d209f8d7e699990a82.es-es.xlf</t>
-  </si>
-  <si>
-    <t>using-ci-with-cli.aeb9bf03ecb439e411bf19a7b3b234950e477308.es-es.xlf</t>
-  </si>
-  <si>
-    <t>aspnet-core.0ce12fb95da3389d420f8d760beddf56ba76296f.es-es.xlf</t>
-  </si>
-  <si>
-    <t>cli-console-app-tutorial-advanced.3f8c5ceafb1629abd38cbc215ac9732c5ffb3006.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-10 13:00:39</t>
-  </si>
-  <si>
-    <t>managing-package-dependency-versions.106313d312f08157767943a637cbc902d4a5d092.es-es.xlf</t>
-  </si>
-  <si>
-    <t>target-dotnetcore-with-msbuild.89a13906467e804ceb90862ef0993a92e3f97334.es-es.xlf</t>
-  </si>
-  <si>
-    <t>index.e068a173b9e0c4eb4561e3c8ef11a0ad3f5fe9d7.es-es.xlf</t>
-  </si>
-  <si>
-    <t>index.e9afc9d665a11b202a45e0f2a7a130b8582edcab.es-es.xlf</t>
-  </si>
-  <si>
-    <t>assembly-format.28db1c2eee4969148649923b2c83a0f9d8295d92.es-es.xlf</t>
-  </si>
-  <si>
-    <t>async.3c115f3a785660b634cfc3d7818885703e4965aa.es-es.xlf</t>
-  </si>
-  <si>
-    <t>basic-string-operations.6ee636bae80b9d255320557a135d219a13065941.es-es.xlf</t>
-  </si>
-  <si>
-    <t>index.56cd399d5b6f858a76bd66ca94d84e5ab5c28ba1.es-es.xlf</t>
-  </si>
-  <si>
-    <t>parsing-strings.76f17ccaf8b16766eb906d657216fb7cd537dee5.es-es.xlf</t>
-  </si>
-  <si>
-    <t>regex-examples.fe3792ccf9e541ce6747f3a5b296147f8a2a491f.es-es.xlf</t>
-  </si>
-  <si>
-    <t>class-libraries.7dadda8f3a69f2786b36b28fcabb59abbadd8677.es-es.xlf</t>
-  </si>
-  <si>
-    <t>commonly-used-collection-types.87b05596cbab370816c5e11832c8858aeaa2d9a1.es-es.xlf</t>
-  </si>
-  <si>
-    <t>framework-libraries.a910059a62e8080f3edc3e6a3141c5392e5f4840.es-es.xlf</t>
-  </si>
-  <si>
-    <t>unmanaged.bbfd2c5291e4fe5a7a8152017a43aa7a4e3e4b63.es-es.xlf</t>
-  </si>
-  <si>
-    <t>index.b8d322cca13b7303167b216a3efe71db4e1687a1.es-es.xlf</t>
-  </si>
-  <si>
-    <t>TOC.c5e56b4d05e38e466c0192461b6c26065f810c46.es-es.xlf</t>
-  </si>
-  <si>
-    <t>products.ebdb86234bc94877f6161f2a1a795c27bd341f8c.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-05 05:49:39</t>
-  </si>
-  <si>
-    <t>2016-11-10 10:28:32</t>
-  </si>
-  <si>
-    <t>app-types.0987f6c1d2b5234f56598b7a3697680f81a70fef.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-09 00:43:15</t>
-  </si>
-  <si>
-    <t>reducing-dependencies.71640f63ca24d0088f5f9191f05950b16b59c636.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>sdk.9c3255d4577e69d6aee70730290944dc9d2da45d.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>index.874b2218474cbbb7738dd697aef54bd275718c7c.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>using-mstest-on-windows.be87ab01f91967df5135e0aadaef93c5bf6ee893.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dotnet-new.1c4e72c8a865272c8db60fcd510833b3cc8c3f2b.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>telemetry.1c2d2f66e2f7ddb65a3162d84b46390eaf6c700e.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>test-protocol.a59cc173f516589fa2bcb6d209f8d7e699990a82.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>using-ci-with-cli.aeb9bf03ecb439e411bf19a7b3b234950e477308.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>aspnet-core.0ce12fb95da3389d420f8d760beddf56ba76296f.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>cli-console-app-tutorial-advanced.3f8c5ceafb1629abd38cbc215ac9732c5ffb3006.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-10 13:00:45</t>
-  </si>
-  <si>
-    <t>managing-package-dependency-versions.106313d312f08157767943a637cbc902d4a5d092.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>target-dotnetcore-with-msbuild.89a13906467e804ceb90862ef0993a92e3f97334.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>index.e068a173b9e0c4eb4561e3c8ef11a0ad3f5fe9d7.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>index.e9afc9d665a11b202a45e0f2a7a130b8582edcab.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>assembly-format.28db1c2eee4969148649923b2c83a0f9d8295d92.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>async.3c115f3a785660b634cfc3d7818885703e4965aa.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>basic-string-operations.6ee636bae80b9d255320557a135d219a13065941.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>index.56cd399d5b6f858a76bd66ca94d84e5ab5c28ba1.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>parsing-strings.76f17ccaf8b16766eb906d657216fb7cd537dee5.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>regex-examples.fe3792ccf9e541ce6747f3a5b296147f8a2a491f.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>class-libraries.7dadda8f3a69f2786b36b28fcabb59abbadd8677.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>commonly-used-collection-types.87b05596cbab370816c5e11832c8858aeaa2d9a1.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>framework-libraries.a910059a62e8080f3edc3e6a3141c5392e5f4840.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>unmanaged.bbfd2c5291e4fe5a7a8152017a43aa7a4e3e4b63.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>index.b8d322cca13b7303167b216a3efe71db4e1687a1.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>TOC.c5e56b4d05e38e466c0192461b6c26065f810c46.ru-ru.xlf</t>
   </si>
   <si>
     <t>products.ebdb86234bc94877f6161f2a1a795c27bd341f8c.zh-tw.xlf</t>
@@ -1104,8 +1116,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="fr-fr" displayName="fr_fr" ref="A1:P24" headerRowCount="1">
-  <autoFilter ref="A1:P24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="it-it" displayName="it_it" ref="A1:P18" headerRowCount="1">
+  <autoFilter ref="A1:P18"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -1160,12 +1172,12 @@
     <tableColumn id="2" name="Path And Name"/>
     <tableColumn id="3" name="Extension"/>
     <tableColumn id="4" name="Publish URL"/>
-    <tableColumn id="5" name="fr-fr"/>
-    <tableColumn id="6" name="zh-cn"/>
-    <tableColumn id="7" name="it-it"/>
-    <tableColumn id="8" name="de-de"/>
-    <tableColumn id="9" name="es-es"/>
-    <tableColumn id="10" name="ru-ru"/>
+    <tableColumn id="5" name="it-it"/>
+    <tableColumn id="6" name="fr-fr"/>
+    <tableColumn id="7" name="de-de"/>
+    <tableColumn id="8" name="es-es"/>
+    <tableColumn id="9" name="ru-ru"/>
+    <tableColumn id="10" name="zh-cn"/>
     <tableColumn id="11" name="zh-tw"/>
     <tableColumn id="12" name="ja-jp"/>
     <tableColumn id="13" name="ko-kr"/>
@@ -1176,7 +1188,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:P24" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fr-fr" displayName="fr_fr" ref="A1:P24" headerRowCount="1">
   <autoFilter ref="A1:P24"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
@@ -1201,8 +1213,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="it-it" displayName="it_it" ref="A1:P15" headerRowCount="1">
-  <autoFilter ref="A1:P15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="de-de" displayName="de_de" ref="A1:P12" headerRowCount="1">
+  <autoFilter ref="A1:P12"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -1226,8 +1238,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="de-de" displayName="de_de" ref="A1:P12" headerRowCount="1">
-  <autoFilter ref="A1:P12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="es-es" displayName="es_es" ref="A1:P29" headerRowCount="1">
+  <autoFilter ref="A1:P29"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -1251,7 +1263,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="es-es" displayName="es_es" ref="A1:P29" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="ru-ru" displayName="ru_ru" ref="A1:P29" headerRowCount="1">
   <autoFilter ref="A1:P29"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
@@ -1276,8 +1288,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ru-ru" displayName="ru_ru" ref="A1:P29" headerRowCount="1">
-  <autoFilter ref="A1:P29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="zh-cn" displayName="zh_cn" ref="A1:P24" headerRowCount="1">
+  <autoFilter ref="A1:P24"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -1873,7 +1885,7 @@
         <v>38</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>17</v>
@@ -1914,7 +1926,7 @@
         <v>38</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>17</v>
@@ -1952,10 +1964,10 @@
         <v>17</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>17</v>
@@ -1993,10 +2005,10 @@
         <v>17</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>17</v>
@@ -2034,10 +2046,10 @@
         <v>17</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>17</v>
@@ -2078,7 +2090,7 @@
         <v>38</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>17</v>
@@ -2101,10 +2113,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>16</v>
@@ -2116,10 +2128,10 @@
         <v>17</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>17</v>
@@ -2142,16 +2154,16 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>17</v>
@@ -2160,7 +2172,7 @@
         <v>38</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>17</v>
@@ -2183,16 +2195,16 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>17</v>
@@ -2201,7 +2213,7 @@
         <v>38</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>17</v>
@@ -2224,16 +2236,16 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>17</v>
@@ -2242,7 +2254,7 @@
         <v>38</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>17</v>
@@ -2265,16 +2277,16 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>17</v>
@@ -2283,7 +2295,7 @@
         <v>38</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>17</v>
@@ -2306,16 +2318,16 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>17</v>
@@ -2324,7 +2336,7 @@
         <v>38</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>17</v>
@@ -2347,22 +2359,22 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>17</v>
@@ -2406,13 +2418,13 @@
         <v>38</v>
       </c>
       <c r="H25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>17</v>
@@ -2447,13 +2459,13 @@
         <v>38</v>
       </c>
       <c r="H26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>17</v>
@@ -2488,13 +2500,13 @@
         <v>38</v>
       </c>
       <c r="H27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>17</v>
@@ -2529,13 +2541,13 @@
         <v>38</v>
       </c>
       <c r="H28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>17</v>
@@ -2570,13 +2582,13 @@
         <v>38</v>
       </c>
       <c r="H29" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>17</v>
@@ -2609,13 +2621,13 @@
     <hyperlink ref="B15" display="docs\standard\async.md" r:id="rId15"/>
     <hyperlink ref="B16" display="docs\standard\base-types\basic-string-operations.md" r:id="rId16"/>
     <hyperlink ref="B17" display="docs\standard\base-types\index.md" r:id="rId17"/>
-    <hyperlink ref="B18" display="docs\standard\base-types\parsing-strings.md" r:id="rId18"/>
-    <hyperlink ref="B19" display="docs\standard\base-types\regex-examples.md" r:id="rId19"/>
-    <hyperlink ref="B20" display="docs\standard\class-libraries.md" r:id="rId20"/>
-    <hyperlink ref="B21" display="docs\standard\collections\commonly-used-collection-types.md" r:id="rId21"/>
-    <hyperlink ref="B22" display="docs\standard\framework-libraries.md" r:id="rId22"/>
-    <hyperlink ref="B23" display="docs\standard\garbagecollection\unmanaged.md" r:id="rId23"/>
-    <hyperlink ref="B24" display="index.md" r:id="rId24"/>
+    <hyperlink ref="B18" display="index.md" r:id="rId18"/>
+    <hyperlink ref="B19" display="docs\standard\base-types\parsing-strings.md" r:id="rId19"/>
+    <hyperlink ref="B20" display="docs\standard\base-types\regex-examples.md" r:id="rId20"/>
+    <hyperlink ref="B21" display="docs\standard\class-libraries.md" r:id="rId21"/>
+    <hyperlink ref="B22" display="docs\standard\collections\commonly-used-collection-types.md" r:id="rId22"/>
+    <hyperlink ref="B23" display="docs\standard\framework-libraries.md" r:id="rId23"/>
+    <hyperlink ref="B24" display="docs\standard\garbagecollection\unmanaged.md" r:id="rId24"/>
     <hyperlink ref="B25" display="docs\about\products.md" r:id="rId25"/>
     <hyperlink ref="B26" display="docs\core\tutorials\cli-console-app-tutorial-advanced.md" r:id="rId26"/>
     <hyperlink ref="B27" display="docs\core\tutorials\managing-package-dependency-versions.md" r:id="rId27"/>
@@ -2716,7 +2728,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>85</v>
@@ -2725,7 +2737,7 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>18</v>
@@ -2734,10 +2746,10 @@
         <v>59</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -2775,7 +2787,7 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>18</v>
@@ -2784,10 +2796,10 @@
         <v>14</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -2825,7 +2837,7 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
@@ -2834,10 +2846,10 @@
         <v>19</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -2875,7 +2887,7 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>18</v>
@@ -2884,10 +2896,10 @@
         <v>21</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -2925,7 +2937,7 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>18</v>
@@ -2934,10 +2946,10 @@
         <v>23</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -2975,7 +2987,7 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>18</v>
@@ -2984,10 +2996,10 @@
         <v>25</v>
       </c>
       <c r="J7" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -3025,7 +3037,7 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>18</v>
@@ -3034,10 +3046,10 @@
         <v>27</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -3075,7 +3087,7 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>18</v>
@@ -3084,10 +3096,10 @@
         <v>29</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -3125,7 +3137,7 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>18</v>
@@ -3134,10 +3146,10 @@
         <v>31</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -3175,7 +3187,7 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>18</v>
@@ -3184,10 +3196,10 @@
         <v>33</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -3225,7 +3237,7 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>18</v>
@@ -3234,10 +3246,10 @@
         <v>35</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -3275,7 +3287,7 @@
         <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>18</v>
@@ -3284,10 +3296,10 @@
         <v>61</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>90</v>
@@ -3325,7 +3337,7 @@
         <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>18</v>
@@ -3334,10 +3346,10 @@
         <v>63</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -3375,7 +3387,7 @@
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>18</v>
@@ -3384,10 +3396,10 @@
         <v>65</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -3425,7 +3437,7 @@
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>18</v>
@@ -3434,10 +3446,10 @@
         <v>23</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -3475,7 +3487,7 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>18</v>
@@ -3484,10 +3496,10 @@
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>90</v>
@@ -3525,7 +3537,7 @@
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>18</v>
@@ -3534,10 +3546,10 @@
         <v>40</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -3575,7 +3587,7 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>18</v>
@@ -3584,10 +3596,10 @@
         <v>42</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -3616,7 +3628,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>111</v>
@@ -3625,7 +3637,7 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>18</v>
@@ -3634,10 +3646,10 @@
         <v>44</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -3666,7 +3678,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>85</v>
@@ -3675,7 +3687,7 @@
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>18</v>
@@ -3684,10 +3696,10 @@
         <v>23</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -3716,7 +3728,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>111</v>
@@ -3725,7 +3737,7 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>18</v>
@@ -3734,10 +3746,10 @@
         <v>47</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -3766,7 +3778,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>111</v>
@@ -3775,7 +3787,7 @@
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>18</v>
@@ -3784,10 +3796,10 @@
         <v>49</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -3825,7 +3837,7 @@
         <v>91</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>18</v>
@@ -3834,10 +3846,10 @@
         <v>51</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>90</v>
@@ -3866,7 +3878,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>111</v>
@@ -3875,7 +3887,7 @@
         <v>91</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>18</v>
@@ -3884,10 +3896,10 @@
         <v>53</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>90</v>
@@ -3925,7 +3937,7 @@
         <v>91</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>18</v>
@@ -3934,10 +3946,10 @@
         <v>55</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>90</v>
@@ -3966,7 +3978,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>111</v>
@@ -3975,7 +3987,7 @@
         <v>91</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>18</v>
@@ -3984,10 +3996,10 @@
         <v>57</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>90</v>
@@ -4025,7 +4037,7 @@
         <v>91</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>18</v>
@@ -4034,10 +4046,10 @@
         <v>23</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>90</v>
@@ -4075,7 +4087,7 @@
         <v>91</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>18</v>
@@ -4084,10 +4096,10 @@
         <v>67</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>90</v>
@@ -4257,21 +4269,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.4939814976283" customWidth="1"/>
+    <col min="1" max="1" width="27.4538029261998" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
     <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
-    <col min="4" max="4" width="30.4697984967913" customWidth="1"/>
+    <col min="4" max="4" width="24.3927917480469" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
-    <col min="9" max="9" width="33.4939814976283" customWidth="1"/>
+    <col min="9" max="9" width="27.4538029261998" customWidth="1"/>
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="32.0967516217913" customWidth="1"/>
     <col min="12" max="12" width="19.298205784389" customWidth="1"/>
@@ -4963,7 +4975,7 @@
         <v>112</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -5001,7 +5013,7 @@
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>88</v>
@@ -5010,10 +5022,10 @@
         <v>42</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -5042,7 +5054,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>111</v>
@@ -5051,7 +5063,7 @@
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>88</v>
@@ -5060,10 +5072,10 @@
         <v>44</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -5092,7 +5104,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>85</v>
@@ -5101,7 +5113,7 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>88</v>
@@ -5110,7 +5122,7 @@
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>107</v>
@@ -5133,7 +5145,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>16</v>
@@ -5142,28 +5154,28 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>88</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -5178,306 +5190,6 @@
         <v>91</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M19" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N19" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O19" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P19" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N20" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P20" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M21" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N21" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O21" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P21" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N22" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P22" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M23" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N23" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O23" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P23" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N24" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O24" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P24" s="0" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5515,20 +5227,8 @@
     <hyperlink ref="I16" display="basic-string-operations.md" r:id="rId31"/>
     <hyperlink ref="A17" display="index.md" r:id="rId32"/>
     <hyperlink ref="I17" display="index.md" r:id="rId33"/>
-    <hyperlink ref="A18" display="parsing-strings.md" r:id="rId34"/>
-    <hyperlink ref="I18" display="parsing-strings.md" r:id="rId35"/>
-    <hyperlink ref="A19" display="regex-examples.md" r:id="rId36"/>
-    <hyperlink ref="I19" display="regex-examples.md" r:id="rId37"/>
-    <hyperlink ref="A20" display="class-libraries.md" r:id="rId38"/>
-    <hyperlink ref="I20" display="class-libraries.md" r:id="rId39"/>
-    <hyperlink ref="A21" display="commonly-used-collection-types.md" r:id="rId40"/>
-    <hyperlink ref="I21" display="commonly-used-collection-types.md" r:id="rId41"/>
-    <hyperlink ref="A22" display="framework-libraries.md" r:id="rId42"/>
-    <hyperlink ref="I22" display="framework-libraries.md" r:id="rId43"/>
-    <hyperlink ref="A23" display="unmanaged.md" r:id="rId44"/>
-    <hyperlink ref="I23" display="unmanaged.md" r:id="rId45"/>
-    <hyperlink ref="A24" display="index.md" r:id="rId46"/>
-    <hyperlink ref="I24" display="index.md" r:id="rId47"/>
+    <hyperlink ref="A18" display="index.md" r:id="rId34"/>
+    <hyperlink ref="I18" display="index.md" r:id="rId35"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -5633,19 +5333,19 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -5683,19 +5383,19 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -5733,19 +5433,19 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -5783,19 +5483,19 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -5833,19 +5533,19 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -5883,19 +5583,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -5933,19 +5633,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -5983,19 +5683,19 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -6033,19 +5733,19 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -6083,19 +5783,19 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -6133,19 +5833,19 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -6183,19 +5883,19 @@
         <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>90</v>
@@ -6233,19 +5933,19 @@
         <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -6283,19 +5983,19 @@
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -6324,7 +6024,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>111</v>
@@ -6333,19 +6033,19 @@
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -6374,7 +6074,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>85</v>
@@ -6383,19 +6083,19 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>90</v>
@@ -6424,7 +6124,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>111</v>
@@ -6433,19 +6133,19 @@
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -6474,7 +6174,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>111</v>
@@ -6483,19 +6183,19 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -6533,19 +6233,19 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -6574,7 +6274,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>111</v>
@@ -6583,19 +6283,19 @@
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -6633,19 +6333,19 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -6674,7 +6374,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>111</v>
@@ -6683,19 +6383,19 @@
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -6733,19 +6433,19 @@
         <v>91</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>90</v>
@@ -6821,820 +6521,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.4538029261998" customWidth="1"/>
-    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
-    <col min="4" max="4" width="24.3927917480469" customWidth="1"/>
-    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
-    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
-    <col min="9" max="9" width="27.4538029261998" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="32.0967516217913" customWidth="1"/>
-    <col min="12" max="12" width="19.298205784389" customWidth="1"/>
-    <col min="13" max="13" width="16.6648352486747" customWidth="1"/>
-    <col min="14" max="14" width="19.7299390520368" customWidth="1"/>
-    <col min="15" max="15" width="15.8504747663225" customWidth="1"/>
-    <col min="16" max="16" width="13.7470528738839" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P14" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P15" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" display="app-types.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="app-types.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="reducing-dependencies.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="reducing-dependencies.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="sdk.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="sdk.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="index.md" r:id="rId8"/>
-    <hyperlink ref="I5" display="index.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="using-mstest-on-windows.md" r:id="rId10"/>
-    <hyperlink ref="I6" display="using-mstest-on-windows.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="dotnet-new.md" r:id="rId12"/>
-    <hyperlink ref="I7" display="dotnet-new.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="telemetry.md" r:id="rId14"/>
-    <hyperlink ref="I8" display="telemetry.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="test-protocol.md" r:id="rId16"/>
-    <hyperlink ref="I9" display="test-protocol.md" r:id="rId17"/>
-    <hyperlink ref="A10" display="using-ci-with-cli.md" r:id="rId18"/>
-    <hyperlink ref="I10" display="using-ci-with-cli.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="aspnet-core.md" r:id="rId20"/>
-    <hyperlink ref="I11" display="aspnet-core.md" r:id="rId21"/>
-    <hyperlink ref="A12" display="assembly-format.md" r:id="rId22"/>
-    <hyperlink ref="I12" display="assembly-format.md" r:id="rId23"/>
-    <hyperlink ref="A13" display="async.md" r:id="rId24"/>
-    <hyperlink ref="I13" display="async.md" r:id="rId25"/>
-    <hyperlink ref="A14" display="basic-string-operations.md" r:id="rId26"/>
-    <hyperlink ref="I14" display="basic-string-operations.md" r:id="rId27"/>
-    <hyperlink ref="A15" display="index.md" r:id="rId28"/>
-    <hyperlink ref="I15" display="index.md" r:id="rId29"/>
-  </hyperlinks>
-  <headerFooter/>
-  <tableParts>
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7729,19 +6615,19 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -7779,19 +6665,19 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -7829,19 +6715,19 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -7879,19 +6765,19 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -7929,19 +6815,19 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -7979,19 +6865,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -8029,19 +6915,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -8079,19 +6965,19 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -8129,19 +7015,19 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -8179,19 +7065,19 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -8229,19 +7115,19 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -8283,6 +7169,1548 @@
     <hyperlink ref="I11" display="aspnet-core.md" r:id="rId21"/>
     <hyperlink ref="A12" display="index.md" r:id="rId22"/>
     <hyperlink ref="I12" display="index.md" r:id="rId23"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="4" max="4" width="30.4697984967913" customWidth="1"/>
+    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
+    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="32.0967516217913" customWidth="1"/>
+    <col min="12" max="12" width="19.298205784389" customWidth="1"/>
+    <col min="13" max="13" width="16.6648352486747" customWidth="1"/>
+    <col min="14" max="14" width="19.7299390520368" customWidth="1"/>
+    <col min="15" max="15" width="15.8504747663225" customWidth="1"/>
+    <col min="16" max="16" width="13.7470528738839" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="products.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="products.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="app-types.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="app-types.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="reducing-dependencies.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="reducing-dependencies.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="sdk.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="sdk.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="index.md" r:id="rId10"/>
+    <hyperlink ref="I6" display="index.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="using-mstest-on-windows.md" r:id="rId12"/>
+    <hyperlink ref="I7" display="using-mstest-on-windows.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="dotnet-new.md" r:id="rId14"/>
+    <hyperlink ref="I8" display="dotnet-new.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="telemetry.md" r:id="rId16"/>
+    <hyperlink ref="I9" display="telemetry.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="test-protocol.md" r:id="rId18"/>
+    <hyperlink ref="I10" display="test-protocol.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="using-ci-with-cli.md" r:id="rId20"/>
+    <hyperlink ref="I11" display="using-ci-with-cli.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="aspnet-core.md" r:id="rId22"/>
+    <hyperlink ref="I12" display="aspnet-core.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="cli-console-app-tutorial-advanced.md" r:id="rId24"/>
+    <hyperlink ref="I13" display="cli-console-app-tutorial-advanced.md" r:id="rId25"/>
+    <hyperlink ref="A14" display="managing-package-dependency-versions.md" r:id="rId26"/>
+    <hyperlink ref="I14" display="managing-package-dependency-versions.md" r:id="rId27"/>
+    <hyperlink ref="A15" display="target-dotnetcore-with-msbuild.md" r:id="rId28"/>
+    <hyperlink ref="I15" display="target-dotnetcore-with-msbuild.md" r:id="rId29"/>
+    <hyperlink ref="A16" display="index.md" r:id="rId30"/>
+    <hyperlink ref="I16" display="index.md" r:id="rId31"/>
+    <hyperlink ref="A17" display="index.md" r:id="rId32"/>
+    <hyperlink ref="I17" display="index.md" r:id="rId33"/>
+    <hyperlink ref="A18" display="assembly-format.md" r:id="rId34"/>
+    <hyperlink ref="I18" display="assembly-format.md" r:id="rId35"/>
+    <hyperlink ref="A19" display="async.md" r:id="rId36"/>
+    <hyperlink ref="I19" display="async.md" r:id="rId37"/>
+    <hyperlink ref="A20" display="basic-string-operations.md" r:id="rId38"/>
+    <hyperlink ref="I20" display="basic-string-operations.md" r:id="rId39"/>
+    <hyperlink ref="A21" display="index.md" r:id="rId40"/>
+    <hyperlink ref="I21" display="index.md" r:id="rId41"/>
+    <hyperlink ref="A22" display="parsing-strings.md" r:id="rId42"/>
+    <hyperlink ref="I22" display="parsing-strings.md" r:id="rId43"/>
+    <hyperlink ref="A23" display="regex-examples.md" r:id="rId44"/>
+    <hyperlink ref="I23" display="regex-examples.md" r:id="rId45"/>
+    <hyperlink ref="A24" display="class-libraries.md" r:id="rId46"/>
+    <hyperlink ref="I24" display="class-libraries.md" r:id="rId47"/>
+    <hyperlink ref="A25" display="commonly-used-collection-types.md" r:id="rId48"/>
+    <hyperlink ref="I25" display="commonly-used-collection-types.md" r:id="rId49"/>
+    <hyperlink ref="A26" display="framework-libraries.md" r:id="rId50"/>
+    <hyperlink ref="I26" display="framework-libraries.md" r:id="rId51"/>
+    <hyperlink ref="A27" display="unmanaged.md" r:id="rId52"/>
+    <hyperlink ref="I27" display="unmanaged.md" r:id="rId53"/>
+    <hyperlink ref="A28" display="index.md" r:id="rId54"/>
+    <hyperlink ref="I28" display="index.md" r:id="rId55"/>
+    <hyperlink ref="A29" display="TOC.md" r:id="rId56"/>
+    <hyperlink ref="I29" display="TOC.md" r:id="rId57"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -8378,7 +8806,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>85</v>
@@ -8387,19 +8815,19 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -8437,19 +8865,19 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -8487,19 +8915,19 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -8537,19 +8965,19 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -8587,19 +9015,19 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -8637,19 +9065,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -8687,19 +9115,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -8737,19 +9165,19 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -8787,19 +9215,19 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -8837,19 +9265,19 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -8887,19 +9315,19 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -8937,19 +9365,19 @@
         <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>90</v>
@@ -8987,19 +9415,19 @@
         <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -9037,19 +9465,19 @@
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -9087,19 +9515,19 @@
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -9137,19 +9565,19 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>90</v>
@@ -9187,19 +9615,19 @@
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -9237,19 +9665,19 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -9278,7 +9706,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>111</v>
@@ -9287,19 +9715,19 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -9328,7 +9756,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>85</v>
@@ -9337,19 +9765,19 @@
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -9378,7 +9806,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>111</v>
@@ -9387,19 +9815,19 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -9428,7 +9856,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>111</v>
@@ -9437,19 +9865,19 @@
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -9487,19 +9915,19 @@
         <v>91</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>90</v>
@@ -9528,7 +9956,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>111</v>
@@ -9537,19 +9965,19 @@
         <v>91</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>90</v>
@@ -9587,19 +10015,19 @@
         <v>91</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>90</v>
@@ -9628,7 +10056,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>111</v>
@@ -9637,19 +10065,19 @@
         <v>91</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>90</v>
@@ -9687,19 +10115,19 @@
         <v>91</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>90</v>
@@ -9737,19 +10165,19 @@
         <v>91</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>90</v>
@@ -9835,13 +10263,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="1" max="1" width="33.4939814976283" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
     <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="30.4697984967913" customWidth="1"/>
@@ -9849,7 +10277,7 @@
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="9" max="9" width="33.4939814976283" customWidth="1"/>
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="32.0967516217913" customWidth="1"/>
     <col min="12" max="12" width="19.298205784389" customWidth="1"/>
@@ -9911,7 +10339,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>16</v>
@@ -9920,7 +10348,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>85</v>
@@ -9929,19 +10357,19 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -9961,7 +10389,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>16</v>
@@ -9970,7 +10398,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>85</v>
@@ -9979,19 +10407,19 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -10011,7 +10439,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>16</v>
@@ -10020,7 +10448,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>85</v>
@@ -10029,19 +10457,19 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -10061,7 +10489,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>16</v>
@@ -10070,7 +10498,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>85</v>
@@ -10079,19 +10507,19 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -10111,7 +10539,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>16</v>
@@ -10129,19 +10557,19 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -10161,7 +10589,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>16</v>
@@ -10170,7 +10598,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>85</v>
@@ -10179,19 +10607,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -10211,7 +10639,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>16</v>
@@ -10229,19 +10657,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -10261,7 +10689,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>16</v>
@@ -10279,19 +10707,19 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -10311,7 +10739,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>16</v>
@@ -10329,19 +10757,19 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -10361,7 +10789,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>16</v>
@@ -10370,7 +10798,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>85</v>
@@ -10379,19 +10807,19 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -10411,7 +10839,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -10420,7 +10848,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>85</v>
@@ -10429,19 +10857,19 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -10461,7 +10889,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>16</v>
@@ -10470,7 +10898,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>85</v>
@@ -10479,19 +10907,19 @@
         <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>90</v>
@@ -10511,7 +10939,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>16</v>
@@ -10520,28 +10948,28 @@
         <v>17</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -10561,7 +10989,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>16</v>
@@ -10570,28 +10998,28 @@
         <v>17</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -10611,7 +11039,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>16</v>
@@ -10620,28 +11048,28 @@
         <v>17</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -10670,7 +11098,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>85</v>
@@ -10679,19 +11107,19 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>90</v>
@@ -10711,7 +11139,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>16</v>
@@ -10720,7 +11148,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>111</v>
@@ -10729,19 +11157,19 @@
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -10761,7 +11189,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>16</v>
@@ -10770,7 +11198,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>111</v>
@@ -10779,19 +11207,19 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -10811,7 +11239,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>16</v>
@@ -10820,7 +11248,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>111</v>
@@ -10829,19 +11257,19 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -10861,7 +11289,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>16</v>
@@ -10870,28 +11298,28 @@
         <v>17</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -10911,7 +11339,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>16</v>
@@ -10920,7 +11348,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>111</v>
@@ -10929,19 +11357,19 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -10961,7 +11389,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>16</v>
@@ -10970,7 +11398,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>111</v>
@@ -10979,19 +11407,19 @@
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -11011,7 +11439,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>16</v>
@@ -11020,28 +11448,28 @@
         <v>17</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>91</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>90</v>
@@ -11056,317 +11484,57 @@
         <v>91</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O25" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P25" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N26" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O26" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P26" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O27" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P27" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N28" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O28" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P28" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N29" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O29" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="P29" s="0" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="products.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="products.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="app-types.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="app-types.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="reducing-dependencies.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="reducing-dependencies.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="sdk.md" r:id="rId8"/>
-    <hyperlink ref="I5" display="sdk.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="index.md" r:id="rId10"/>
-    <hyperlink ref="I6" display="index.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="using-mstest-on-windows.md" r:id="rId12"/>
-    <hyperlink ref="I7" display="using-mstest-on-windows.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="dotnet-new.md" r:id="rId14"/>
-    <hyperlink ref="I8" display="dotnet-new.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="telemetry.md" r:id="rId16"/>
-    <hyperlink ref="I9" display="telemetry.md" r:id="rId17"/>
-    <hyperlink ref="A10" display="test-protocol.md" r:id="rId18"/>
-    <hyperlink ref="I10" display="test-protocol.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="using-ci-with-cli.md" r:id="rId20"/>
-    <hyperlink ref="I11" display="using-ci-with-cli.md" r:id="rId21"/>
-    <hyperlink ref="A12" display="aspnet-core.md" r:id="rId22"/>
-    <hyperlink ref="I12" display="aspnet-core.md" r:id="rId23"/>
-    <hyperlink ref="A13" display="cli-console-app-tutorial-advanced.md" r:id="rId24"/>
-    <hyperlink ref="I13" display="cli-console-app-tutorial-advanced.md" r:id="rId25"/>
-    <hyperlink ref="A14" display="managing-package-dependency-versions.md" r:id="rId26"/>
-    <hyperlink ref="I14" display="managing-package-dependency-versions.md" r:id="rId27"/>
-    <hyperlink ref="A15" display="target-dotnetcore-with-msbuild.md" r:id="rId28"/>
-    <hyperlink ref="I15" display="target-dotnetcore-with-msbuild.md" r:id="rId29"/>
-    <hyperlink ref="A16" display="index.md" r:id="rId30"/>
-    <hyperlink ref="I16" display="index.md" r:id="rId31"/>
+    <hyperlink ref="A2" display="app-types.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="app-types.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="reducing-dependencies.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="reducing-dependencies.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="sdk.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="sdk.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="index.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="index.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="using-mstest-on-windows.md" r:id="rId10"/>
+    <hyperlink ref="I6" display="using-mstest-on-windows.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="dotnet-new.md" r:id="rId12"/>
+    <hyperlink ref="I7" display="dotnet-new.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="telemetry.md" r:id="rId14"/>
+    <hyperlink ref="I8" display="telemetry.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="test-protocol.md" r:id="rId16"/>
+    <hyperlink ref="I9" display="test-protocol.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="using-ci-with-cli.md" r:id="rId18"/>
+    <hyperlink ref="I10" display="using-ci-with-cli.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="aspnet-core.md" r:id="rId20"/>
+    <hyperlink ref="I11" display="aspnet-core.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="index.md" r:id="rId22"/>
+    <hyperlink ref="I12" display="index.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="index.md" r:id="rId24"/>
+    <hyperlink ref="I13" display="index.md" r:id="rId25"/>
+    <hyperlink ref="A14" display="assembly-format.md" r:id="rId26"/>
+    <hyperlink ref="I14" display="assembly-format.md" r:id="rId27"/>
+    <hyperlink ref="A15" display="async.md" r:id="rId28"/>
+    <hyperlink ref="I15" display="async.md" r:id="rId29"/>
+    <hyperlink ref="A16" display="basic-string-operations.md" r:id="rId30"/>
+    <hyperlink ref="I16" display="basic-string-operations.md" r:id="rId31"/>
     <hyperlink ref="A17" display="index.md" r:id="rId32"/>
     <hyperlink ref="I17" display="index.md" r:id="rId33"/>
-    <hyperlink ref="A18" display="assembly-format.md" r:id="rId34"/>
-    <hyperlink ref="I18" display="assembly-format.md" r:id="rId35"/>
-    <hyperlink ref="A19" display="async.md" r:id="rId36"/>
-    <hyperlink ref="I19" display="async.md" r:id="rId37"/>
-    <hyperlink ref="A20" display="basic-string-operations.md" r:id="rId38"/>
-    <hyperlink ref="I20" display="basic-string-operations.md" r:id="rId39"/>
-    <hyperlink ref="A21" display="index.md" r:id="rId40"/>
-    <hyperlink ref="I21" display="index.md" r:id="rId41"/>
-    <hyperlink ref="A22" display="parsing-strings.md" r:id="rId42"/>
-    <hyperlink ref="I22" display="parsing-strings.md" r:id="rId43"/>
-    <hyperlink ref="A23" display="regex-examples.md" r:id="rId44"/>
-    <hyperlink ref="I23" display="regex-examples.md" r:id="rId45"/>
-    <hyperlink ref="A24" display="class-libraries.md" r:id="rId46"/>
-    <hyperlink ref="I24" display="class-libraries.md" r:id="rId47"/>
-    <hyperlink ref="A25" display="commonly-used-collection-types.md" r:id="rId48"/>
-    <hyperlink ref="I25" display="commonly-used-collection-types.md" r:id="rId49"/>
-    <hyperlink ref="A26" display="framework-libraries.md" r:id="rId50"/>
-    <hyperlink ref="I26" display="framework-libraries.md" r:id="rId51"/>
-    <hyperlink ref="A27" display="unmanaged.md" r:id="rId52"/>
-    <hyperlink ref="I27" display="unmanaged.md" r:id="rId53"/>
-    <hyperlink ref="A28" display="index.md" r:id="rId54"/>
-    <hyperlink ref="I28" display="index.md" r:id="rId55"/>
-    <hyperlink ref="A29" display="TOC.md" r:id="rId56"/>
-    <hyperlink ref="I29" display="TOC.md" r:id="rId57"/>
+    <hyperlink ref="A18" display="parsing-strings.md" r:id="rId34"/>
+    <hyperlink ref="I18" display="parsing-strings.md" r:id="rId35"/>
+    <hyperlink ref="A19" display="regex-examples.md" r:id="rId36"/>
+    <hyperlink ref="I19" display="regex-examples.md" r:id="rId37"/>
+    <hyperlink ref="A20" display="class-libraries.md" r:id="rId38"/>
+    <hyperlink ref="I20" display="class-libraries.md" r:id="rId39"/>
+    <hyperlink ref="A21" display="commonly-used-collection-types.md" r:id="rId40"/>
+    <hyperlink ref="I21" display="commonly-used-collection-types.md" r:id="rId41"/>
+    <hyperlink ref="A22" display="framework-libraries.md" r:id="rId42"/>
+    <hyperlink ref="I22" display="framework-libraries.md" r:id="rId43"/>
+    <hyperlink ref="A23" display="unmanaged.md" r:id="rId44"/>
+    <hyperlink ref="I23" display="unmanaged.md" r:id="rId45"/>
+    <hyperlink ref="A24" display="index.md" r:id="rId46"/>
+    <hyperlink ref="I24" display="index.md" r:id="rId47"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -11462,7 +11630,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>85</v>
@@ -11471,19 +11639,19 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -11521,19 +11689,19 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -11571,19 +11739,19 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -11621,19 +11789,19 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -11671,19 +11839,19 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -11721,19 +11889,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -11771,19 +11939,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -11821,19 +11989,19 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -11871,19 +12039,19 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -11921,19 +12089,19 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -11971,19 +12139,19 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -12021,19 +12189,19 @@
         <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>90</v>
@@ -12071,19 +12239,19 @@
         <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -12121,19 +12289,19 @@
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -12171,19 +12339,19 @@
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -12221,19 +12389,19 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>90</v>
@@ -12271,19 +12439,19 @@
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -12321,19 +12489,19 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -12362,7 +12530,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>111</v>
@@ -12371,19 +12539,19 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -12412,7 +12580,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>85</v>
@@ -12421,19 +12589,19 @@
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -12462,7 +12630,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>111</v>
@@ -12471,19 +12639,19 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -12512,7 +12680,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>111</v>
@@ -12521,19 +12689,19 @@
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -12571,19 +12739,19 @@
         <v>91</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>90</v>
@@ -12612,7 +12780,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>111</v>
@@ -12621,19 +12789,19 @@
         <v>91</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>90</v>
@@ -12671,19 +12839,19 @@
         <v>91</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>90</v>
@@ -12712,7 +12880,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>111</v>
@@ -12721,19 +12889,19 @@
         <v>91</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>90</v>
@@ -12771,19 +12939,19 @@
         <v>91</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>90</v>
@@ -12821,19 +12989,19 @@
         <v>91</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>90</v>
@@ -13004,7 +13172,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>85</v>
@@ -13013,19 +13181,19 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -13063,19 +13231,19 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -13113,19 +13281,19 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -13163,19 +13331,19 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -13213,19 +13381,19 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -13263,19 +13431,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -13313,19 +13481,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -13363,19 +13531,19 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -13413,19 +13581,19 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -13463,19 +13631,19 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -13513,19 +13681,19 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -13563,19 +13731,19 @@
         <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>90</v>
@@ -13613,19 +13781,19 @@
         <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -13663,19 +13831,19 @@
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -13713,19 +13881,19 @@
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -13763,19 +13931,19 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>90</v>
@@ -13813,19 +13981,19 @@
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -13863,19 +14031,19 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -13904,7 +14072,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>111</v>
@@ -13913,19 +14081,19 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -13954,7 +14122,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>85</v>
@@ -13963,19 +14131,19 @@
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -14004,7 +14172,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>111</v>
@@ -14013,19 +14181,19 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -14054,7 +14222,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>111</v>
@@ -14063,19 +14231,19 @@
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -14113,19 +14281,19 @@
         <v>91</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>90</v>
@@ -14154,7 +14322,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>111</v>
@@ -14163,19 +14331,19 @@
         <v>91</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>90</v>
@@ -14213,19 +14381,19 @@
         <v>91</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>90</v>
@@ -14254,7 +14422,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>111</v>
@@ -14263,19 +14431,19 @@
         <v>91</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>90</v>
@@ -14313,19 +14481,19 @@
         <v>91</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>90</v>
@@ -14363,19 +14531,19 @@
         <v>91</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>90</v>

--- a/ol-handback/dotnet/docs/master/handback-status.xlsx
+++ b/ol-handback/dotnet/docs/master/handback-status.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
   <si>
     <t>File Name</t>
   </si>
@@ -375,6 +375,33 @@
     <t>index.56cd399d5b6f858a76bd66ca94d84e5ab5c28ba1.it-it.xlf</t>
   </si>
   <si>
+    <t>parsing-strings.76f17ccaf8b16766eb906d657216fb7cd537dee5.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-10 20:01:22</t>
+  </si>
+  <si>
+    <t>regex-examples.fe3792ccf9e541ce6747f3a5b296147f8a2a491f.it-it.xlf</t>
+  </si>
+  <si>
+    <t>class-libraries.7dadda8f3a69f2786b36b28fcabb59abbadd8677.it-it.xlf</t>
+  </si>
+  <si>
+    <t>docs\standard\collections</t>
+  </si>
+  <si>
+    <t>commonly-used-collection-types.87b05596cbab370816c5e11832c8858aeaa2d9a1.it-it.xlf</t>
+  </si>
+  <si>
+    <t>framework-libraries.a910059a62e8080f3edc3e6a3141c5392e5f4840.it-it.xlf</t>
+  </si>
+  <si>
+    <t>docs\standard\garbagecollection</t>
+  </si>
+  <si>
+    <t>unmanaged.bbfd2c5291e4fe5a7a8152017a43aa7a4e3e4b63.it-it.xlf</t>
+  </si>
+  <si>
     <t>index.b8d322cca13b7303167b216a3efe71db4e1687a1.it-it.xlf</t>
   </si>
   <si>
@@ -447,16 +474,10 @@
     <t>class-libraries.7dadda8f3a69f2786b36b28fcabb59abbadd8677.fr-fr.xlf</t>
   </si>
   <si>
-    <t>docs\standard\collections</t>
-  </si>
-  <si>
     <t>commonly-used-collection-types.87b05596cbab370816c5e11832c8858aeaa2d9a1.fr-fr.xlf</t>
   </si>
   <si>
     <t>framework-libraries.a910059a62e8080f3edc3e6a3141c5392e5f4840.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>docs\standard\garbagecollection</t>
   </si>
   <si>
     <t>unmanaged.bbfd2c5291e4fe5a7a8152017a43aa7a4e3e4b63.fr-fr.xlf</t>
@@ -1116,8 +1137,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="it-it" displayName="it_it" ref="A1:P18" headerRowCount="1">
-  <autoFilter ref="A1:P18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="it-it" displayName="it_it" ref="A1:P24" headerRowCount="1">
+  <autoFilter ref="A1:P24"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -2113,10 +2134,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>16</v>
@@ -2128,7 +2149,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>17</v>
@@ -2154,16 +2175,16 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>17</v>
@@ -2195,16 +2216,16 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>17</v>
@@ -2236,16 +2257,16 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>17</v>
@@ -2277,16 +2298,16 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>17</v>
@@ -2318,16 +2339,16 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>17</v>
@@ -2359,22 +2380,22 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>17</v>
@@ -2621,13 +2642,13 @@
     <hyperlink ref="B15" display="docs\standard\async.md" r:id="rId15"/>
     <hyperlink ref="B16" display="docs\standard\base-types\basic-string-operations.md" r:id="rId16"/>
     <hyperlink ref="B17" display="docs\standard\base-types\index.md" r:id="rId17"/>
-    <hyperlink ref="B18" display="index.md" r:id="rId18"/>
-    <hyperlink ref="B19" display="docs\standard\base-types\parsing-strings.md" r:id="rId19"/>
-    <hyperlink ref="B20" display="docs\standard\base-types\regex-examples.md" r:id="rId20"/>
-    <hyperlink ref="B21" display="docs\standard\class-libraries.md" r:id="rId21"/>
-    <hyperlink ref="B22" display="docs\standard\collections\commonly-used-collection-types.md" r:id="rId22"/>
-    <hyperlink ref="B23" display="docs\standard\framework-libraries.md" r:id="rId23"/>
-    <hyperlink ref="B24" display="docs\standard\garbagecollection\unmanaged.md" r:id="rId24"/>
+    <hyperlink ref="B18" display="docs\standard\base-types\parsing-strings.md" r:id="rId18"/>
+    <hyperlink ref="B19" display="docs\standard\base-types\regex-examples.md" r:id="rId19"/>
+    <hyperlink ref="B20" display="docs\standard\class-libraries.md" r:id="rId20"/>
+    <hyperlink ref="B21" display="docs\standard\collections\commonly-used-collection-types.md" r:id="rId21"/>
+    <hyperlink ref="B22" display="docs\standard\framework-libraries.md" r:id="rId22"/>
+    <hyperlink ref="B23" display="docs\standard\garbagecollection\unmanaged.md" r:id="rId23"/>
+    <hyperlink ref="B24" display="index.md" r:id="rId24"/>
     <hyperlink ref="B25" display="docs\about\products.md" r:id="rId25"/>
     <hyperlink ref="B26" display="docs\core\tutorials\cli-console-app-tutorial-advanced.md" r:id="rId26"/>
     <hyperlink ref="B27" display="docs\core\tutorials\managing-package-dependency-versions.md" r:id="rId27"/>
@@ -2728,7 +2749,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>85</v>
@@ -2737,7 +2758,7 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>18</v>
@@ -2746,10 +2767,10 @@
         <v>59</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -2787,7 +2808,7 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>18</v>
@@ -2796,10 +2817,10 @@
         <v>14</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -2837,7 +2858,7 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
@@ -2846,10 +2867,10 @@
         <v>19</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -2887,7 +2908,7 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>18</v>
@@ -2896,10 +2917,10 @@
         <v>21</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -2937,7 +2958,7 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>18</v>
@@ -2946,10 +2967,10 @@
         <v>23</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -2987,7 +3008,7 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>18</v>
@@ -2996,10 +3017,10 @@
         <v>25</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -3037,7 +3058,7 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>18</v>
@@ -3046,10 +3067,10 @@
         <v>27</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -3087,7 +3108,7 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>18</v>
@@ -3096,10 +3117,10 @@
         <v>29</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -3137,7 +3158,7 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>18</v>
@@ -3146,10 +3167,10 @@
         <v>31</v>
       </c>
       <c r="J10" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -3187,7 +3208,7 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>18</v>
@@ -3196,10 +3217,10 @@
         <v>33</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -3237,7 +3258,7 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>18</v>
@@ -3246,10 +3267,10 @@
         <v>35</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -3287,7 +3308,7 @@
         <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>18</v>
@@ -3296,10 +3317,10 @@
         <v>61</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>90</v>
@@ -3337,7 +3358,7 @@
         <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>18</v>
@@ -3346,10 +3367,10 @@
         <v>63</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -3387,7 +3408,7 @@
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>18</v>
@@ -3396,10 +3417,10 @@
         <v>65</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -3437,7 +3458,7 @@
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>18</v>
@@ -3446,10 +3467,10 @@
         <v>23</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -3487,7 +3508,7 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>18</v>
@@ -3496,10 +3517,10 @@
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>90</v>
@@ -3537,7 +3558,7 @@
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>18</v>
@@ -3546,10 +3567,10 @@
         <v>40</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -3587,7 +3608,7 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>18</v>
@@ -3596,10 +3617,10 @@
         <v>42</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -3637,7 +3658,7 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>18</v>
@@ -3646,10 +3667,10 @@
         <v>44</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -3687,7 +3708,7 @@
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>18</v>
@@ -3696,10 +3717,10 @@
         <v>23</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -3737,7 +3758,7 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>18</v>
@@ -3746,10 +3767,10 @@
         <v>47</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -3787,7 +3808,7 @@
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>18</v>
@@ -3796,10 +3817,10 @@
         <v>49</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -3837,7 +3858,7 @@
         <v>91</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>18</v>
@@ -3846,10 +3867,10 @@
         <v>51</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>90</v>
@@ -3878,7 +3899,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>111</v>
@@ -3887,7 +3908,7 @@
         <v>91</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>18</v>
@@ -3896,10 +3917,10 @@
         <v>53</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>90</v>
@@ -3937,7 +3958,7 @@
         <v>91</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>18</v>
@@ -3946,10 +3967,10 @@
         <v>55</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>90</v>
@@ -3978,7 +3999,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>111</v>
@@ -3987,7 +4008,7 @@
         <v>91</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>18</v>
@@ -3996,10 +4017,10 @@
         <v>57</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>90</v>
@@ -4037,7 +4058,7 @@
         <v>91</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>18</v>
@@ -4046,10 +4067,10 @@
         <v>23</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>90</v>
@@ -4087,7 +4108,7 @@
         <v>91</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>18</v>
@@ -4096,10 +4117,10 @@
         <v>67</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>90</v>
@@ -4269,21 +4290,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.4538029261998" customWidth="1"/>
+    <col min="1" max="1" width="33.4939814976283" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
     <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
-    <col min="4" max="4" width="24.3927917480469" customWidth="1"/>
+    <col min="4" max="4" width="30.4697984967913" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
-    <col min="9" max="9" width="27.4538029261998" customWidth="1"/>
+    <col min="9" max="9" width="33.4939814976283" customWidth="1"/>
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="32.0967516217913" customWidth="1"/>
     <col min="12" max="12" width="19.298205784389" customWidth="1"/>
@@ -5145,7 +5166,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>16</v>
@@ -5154,10 +5175,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>91</v>
@@ -5169,27 +5190,327 @@
         <v>88</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>117</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L18" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P18" s="0" t="s">
+      <c r="L24" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P24" s="0" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5227,8 +5548,20 @@
     <hyperlink ref="I16" display="basic-string-operations.md" r:id="rId31"/>
     <hyperlink ref="A17" display="index.md" r:id="rId32"/>
     <hyperlink ref="I17" display="index.md" r:id="rId33"/>
-    <hyperlink ref="A18" display="index.md" r:id="rId34"/>
-    <hyperlink ref="I18" display="index.md" r:id="rId35"/>
+    <hyperlink ref="A18" display="parsing-strings.md" r:id="rId34"/>
+    <hyperlink ref="I18" display="parsing-strings.md" r:id="rId35"/>
+    <hyperlink ref="A19" display="regex-examples.md" r:id="rId36"/>
+    <hyperlink ref="I19" display="regex-examples.md" r:id="rId37"/>
+    <hyperlink ref="A20" display="class-libraries.md" r:id="rId38"/>
+    <hyperlink ref="I20" display="class-libraries.md" r:id="rId39"/>
+    <hyperlink ref="A21" display="commonly-used-collection-types.md" r:id="rId40"/>
+    <hyperlink ref="I21" display="commonly-used-collection-types.md" r:id="rId41"/>
+    <hyperlink ref="A22" display="framework-libraries.md" r:id="rId42"/>
+    <hyperlink ref="I22" display="framework-libraries.md" r:id="rId43"/>
+    <hyperlink ref="A23" display="unmanaged.md" r:id="rId44"/>
+    <hyperlink ref="I23" display="unmanaged.md" r:id="rId45"/>
+    <hyperlink ref="A24" display="index.md" r:id="rId46"/>
+    <hyperlink ref="I24" display="index.md" r:id="rId47"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -5333,19 +5666,19 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -5383,19 +5716,19 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -5433,19 +5766,19 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -5483,19 +5816,19 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -5533,19 +5866,19 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -5583,19 +5916,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -5633,19 +5966,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -5683,19 +6016,19 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -5733,19 +6066,19 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -5783,19 +6116,19 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -5833,19 +6166,19 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -5883,19 +6216,19 @@
         <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>90</v>
@@ -5933,19 +6266,19 @@
         <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -5983,19 +6316,19 @@
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -6033,19 +6366,19 @@
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -6083,19 +6416,19 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>90</v>
@@ -6133,19 +6466,19 @@
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -6183,19 +6516,19 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -6233,19 +6566,19 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -6274,7 +6607,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>111</v>
@@ -6283,19 +6616,19 @@
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -6333,19 +6666,19 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J22" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -6374,7 +6707,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>111</v>
@@ -6383,19 +6716,19 @@
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -6433,19 +6766,19 @@
         <v>91</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>90</v>
@@ -6615,19 +6948,19 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -6665,19 +6998,19 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -6715,19 +7048,19 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -6765,19 +7098,19 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -6815,19 +7148,19 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -6865,19 +7198,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -6915,19 +7248,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -6965,19 +7298,19 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J9" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -7015,19 +7348,19 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -7065,19 +7398,19 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -7115,19 +7448,19 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -7264,7 +7597,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>85</v>
@@ -7273,19 +7606,19 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -7323,19 +7656,19 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -7373,19 +7706,19 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -7423,19 +7756,19 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -7473,19 +7806,19 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -7523,19 +7856,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -7573,19 +7906,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -7623,19 +7956,19 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -7673,19 +8006,19 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -7723,19 +8056,19 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -7773,19 +8106,19 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -7823,19 +8156,19 @@
         <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>90</v>
@@ -7873,19 +8206,19 @@
         <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -7923,19 +8256,19 @@
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -7973,19 +8306,19 @@
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -8023,19 +8356,19 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>90</v>
@@ -8073,19 +8406,19 @@
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -8123,19 +8456,19 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -8173,19 +8506,19 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -8223,19 +8556,19 @@
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -8273,19 +8606,19 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -8323,19 +8656,19 @@
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -8373,19 +8706,19 @@
         <v>91</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>90</v>
@@ -8414,7 +8747,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>111</v>
@@ -8423,19 +8756,19 @@
         <v>91</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>90</v>
@@ -8473,19 +8806,19 @@
         <v>91</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>90</v>
@@ -8514,7 +8847,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>111</v>
@@ -8523,19 +8856,19 @@
         <v>91</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>90</v>
@@ -8573,19 +8906,19 @@
         <v>91</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>90</v>
@@ -8623,19 +8956,19 @@
         <v>91</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>90</v>
@@ -8806,7 +9139,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>85</v>
@@ -8815,19 +9148,19 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -8865,19 +9198,19 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -8915,19 +9248,19 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -8965,19 +9298,19 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -9015,19 +9348,19 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -9065,19 +9398,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -9115,19 +9448,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -9165,19 +9498,19 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -9215,19 +9548,19 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -9265,19 +9598,19 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -9315,19 +9648,19 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -9365,19 +9698,19 @@
         <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>90</v>
@@ -9415,19 +9748,19 @@
         <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -9465,19 +9798,19 @@
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -9515,19 +9848,19 @@
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -9565,19 +9898,19 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>90</v>
@@ -9615,19 +9948,19 @@
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -9665,19 +9998,19 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -9715,19 +10048,19 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -9765,19 +10098,19 @@
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -9815,19 +10148,19 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -9865,19 +10198,19 @@
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -9915,19 +10248,19 @@
         <v>91</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>90</v>
@@ -9956,7 +10289,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>111</v>
@@ -9965,19 +10298,19 @@
         <v>91</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>90</v>
@@ -10015,19 +10348,19 @@
         <v>91</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>90</v>
@@ -10056,7 +10389,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>111</v>
@@ -10065,19 +10398,19 @@
         <v>91</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>90</v>
@@ -10115,19 +10448,19 @@
         <v>91</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>90</v>
@@ -10165,19 +10498,19 @@
         <v>91</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>90</v>
@@ -10357,19 +10690,19 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -10407,19 +10740,19 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -10457,19 +10790,19 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -10507,19 +10840,19 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -10557,19 +10890,19 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -10607,19 +10940,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -10657,19 +10990,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -10707,19 +11040,19 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J9" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -10757,19 +11090,19 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -10807,19 +11140,19 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -10857,19 +11190,19 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -10907,19 +11240,19 @@
         <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>90</v>
@@ -10957,19 +11290,19 @@
         <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -11007,19 +11340,19 @@
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -11057,19 +11390,19 @@
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -11107,19 +11440,19 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>90</v>
@@ -11157,19 +11490,19 @@
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -11207,19 +11540,19 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="J19" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -11257,19 +11590,19 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -11298,7 +11631,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>111</v>
@@ -11307,19 +11640,19 @@
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -11357,19 +11690,19 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -11398,7 +11731,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>111</v>
@@ -11407,19 +11740,19 @@
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -11457,19 +11790,19 @@
         <v>91</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>90</v>
@@ -11630,7 +11963,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>85</v>
@@ -11639,19 +11972,19 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -11689,19 +12022,19 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -11739,19 +12072,19 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -11789,19 +12122,19 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -11839,19 +12172,19 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -11889,19 +12222,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -11939,19 +12272,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -11989,19 +12322,19 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -12039,19 +12372,19 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -12089,19 +12422,19 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -12139,19 +12472,19 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -12189,19 +12522,19 @@
         <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>90</v>
@@ -12239,19 +12572,19 @@
         <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -12289,19 +12622,19 @@
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -12339,19 +12672,19 @@
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -12389,19 +12722,19 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>90</v>
@@ -12439,19 +12772,19 @@
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -12489,19 +12822,19 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -12539,19 +12872,19 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -12589,19 +12922,19 @@
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -12639,19 +12972,19 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -12689,19 +13022,19 @@
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -12739,19 +13072,19 @@
         <v>91</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>90</v>
@@ -12780,7 +13113,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>111</v>
@@ -12789,19 +13122,19 @@
         <v>91</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>90</v>
@@ -12839,19 +13172,19 @@
         <v>91</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>90</v>
@@ -12880,7 +13213,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>111</v>
@@ -12889,19 +13222,19 @@
         <v>91</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>90</v>
@@ -12939,19 +13272,19 @@
         <v>91</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>90</v>
@@ -12989,19 +13322,19 @@
         <v>91</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>90</v>
@@ -13172,7 +13505,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>85</v>
@@ -13181,19 +13514,19 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -13231,19 +13564,19 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -13281,19 +13614,19 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -13331,19 +13664,19 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -13381,19 +13714,19 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -13431,19 +13764,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -13481,19 +13814,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -13531,19 +13864,19 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -13581,19 +13914,19 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -13631,19 +13964,19 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -13681,19 +14014,19 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -13731,19 +14064,19 @@
         <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>90</v>
@@ -13781,19 +14114,19 @@
         <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -13831,19 +14164,19 @@
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -13881,19 +14214,19 @@
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -13931,19 +14264,19 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>90</v>
@@ -13981,19 +14314,19 @@
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -14031,19 +14364,19 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -14081,19 +14414,19 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -14131,19 +14464,19 @@
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -14181,19 +14514,19 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -14231,19 +14564,19 @@
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -14281,19 +14614,19 @@
         <v>91</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>90</v>
@@ -14322,7 +14655,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>111</v>
@@ -14331,19 +14664,19 @@
         <v>91</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>90</v>
@@ -14381,19 +14714,19 @@
         <v>91</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>90</v>
@@ -14422,7 +14755,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>111</v>
@@ -14431,19 +14764,19 @@
         <v>91</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>90</v>
@@ -14481,19 +14814,19 @@
         <v>91</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>90</v>
@@ -14531,19 +14864,19 @@
         <v>91</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>90</v>

--- a/ol-handback/dotnet/docs/master/handback-status.xlsx
+++ b/ol-handback/dotnet/docs/master/handback-status.xlsx
@@ -6,9 +6,9 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="it-it" sheetId="2" r:id="rId3"/>
+    <sheet name="de-de" sheetId="2" r:id="rId3"/>
     <sheet name="fr-fr" sheetId="3" r:id="rId4"/>
-    <sheet name="de-de" sheetId="4" r:id="rId5"/>
+    <sheet name="it-it" sheetId="4" r:id="rId5"/>
     <sheet name="es-es" sheetId="5" r:id="rId6"/>
     <sheet name="ru-ru" sheetId="6" r:id="rId7"/>
     <sheet name="zh-cn" sheetId="7" r:id="rId8"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
   <si>
     <t>File Name</t>
   </si>
@@ -36,15 +36,15 @@
     <t>Publish URL</t>
   </si>
   <si>
+    <t>de-de</t>
+  </si>
+  <si>
+    <t>fr-fr</t>
+  </si>
+  <si>
     <t>it-it</t>
   </si>
   <si>
-    <t>fr-fr</t>
-  </si>
-  <si>
-    <t>de-de</t>
-  </si>
-  <si>
     <t>es-es</t>
   </si>
   <si>
@@ -138,69 +138,69 @@
     <t>docs\framework\docker\index.md</t>
   </si>
   <si>
+    <t>docs\framework\index.md</t>
+  </si>
+  <si>
+    <t>assembly-format.md</t>
+  </si>
+  <si>
+    <t>docs\standard\assembly-format.md</t>
+  </si>
+  <si>
+    <t>async.md</t>
+  </si>
+  <si>
+    <t>docs\standard\async.md</t>
+  </si>
+  <si>
+    <t>basic-string-operations.md</t>
+  </si>
+  <si>
+    <t>docs\standard\base-types\basic-string-operations.md</t>
+  </si>
+  <si>
+    <t>docs\standard\base-types\index.md</t>
+  </si>
+  <si>
+    <t>parsing-strings.md</t>
+  </si>
+  <si>
+    <t>docs\standard\base-types\parsing-strings.md</t>
+  </si>
+  <si>
+    <t>regex-examples.md</t>
+  </si>
+  <si>
+    <t>docs\standard\base-types\regex-examples.md</t>
+  </si>
+  <si>
+    <t>class-libraries.md</t>
+  </si>
+  <si>
+    <t>docs\standard\class-libraries.md</t>
+  </si>
+  <si>
+    <t>commonly-used-collection-types.md</t>
+  </si>
+  <si>
+    <t>docs\standard\collections\commonly-used-collection-types.md</t>
+  </si>
+  <si>
+    <t>framework-libraries.md</t>
+  </si>
+  <si>
+    <t>docs\standard\framework-libraries.md</t>
+  </si>
+  <si>
+    <t>unmanaged.md</t>
+  </si>
+  <si>
+    <t>docs\standard\garbagecollection\unmanaged.md</t>
+  </si>
+  <si>
     <t>N\A</t>
   </si>
   <si>
-    <t>docs\framework\index.md</t>
-  </si>
-  <si>
-    <t>assembly-format.md</t>
-  </si>
-  <si>
-    <t>docs\standard\assembly-format.md</t>
-  </si>
-  <si>
-    <t>async.md</t>
-  </si>
-  <si>
-    <t>docs\standard\async.md</t>
-  </si>
-  <si>
-    <t>basic-string-operations.md</t>
-  </si>
-  <si>
-    <t>docs\standard\base-types\basic-string-operations.md</t>
-  </si>
-  <si>
-    <t>docs\standard\base-types\index.md</t>
-  </si>
-  <si>
-    <t>parsing-strings.md</t>
-  </si>
-  <si>
-    <t>docs\standard\base-types\parsing-strings.md</t>
-  </si>
-  <si>
-    <t>regex-examples.md</t>
-  </si>
-  <si>
-    <t>docs\standard\base-types\regex-examples.md</t>
-  </si>
-  <si>
-    <t>class-libraries.md</t>
-  </si>
-  <si>
-    <t>docs\standard\class-libraries.md</t>
-  </si>
-  <si>
-    <t>commonly-used-collection-types.md</t>
-  </si>
-  <si>
-    <t>docs\standard\collections\commonly-used-collection-types.md</t>
-  </si>
-  <si>
-    <t>framework-libraries.md</t>
-  </si>
-  <si>
-    <t>docs\standard\framework-libraries.md</t>
-  </si>
-  <si>
-    <t>unmanaged.md</t>
-  </si>
-  <si>
-    <t>docs\standard\garbagecollection\unmanaged.md</t>
-  </si>
-  <si>
     <t>products.md</t>
   </si>
   <si>
@@ -285,6 +285,201 @@
     <t>False</t>
   </si>
   <si>
+    <t>app-types.0987f6c1d2b5234f56598b7a3697680f81a70fef.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-05 05:46:09</t>
+  </si>
+  <si>
+    <t>2016-11-09 00:43:00</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>docs\core\deploying</t>
+  </si>
+  <si>
+    <t>reducing-dependencies.71640f63ca24d0088f5f9191f05950b16b59c636.de-de.xlf</t>
+  </si>
+  <si>
+    <t>sdk.9c3255d4577e69d6aee70730290944dc9d2da45d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>docs\core\testing</t>
+  </si>
+  <si>
+    <t>index.874b2218474cbbb7738dd697aef54bd275718c7c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>using-mstest-on-windows.be87ab01f91967df5135e0aadaef93c5bf6ee893.de-de.xlf</t>
+  </si>
+  <si>
+    <t>docs\core\tools</t>
+  </si>
+  <si>
+    <t>dotnet-new.1c4e72c8a865272c8db60fcd510833b3cc8c3f2b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>telemetry.1c2d2f66e2f7ddb65a3162d84b46390eaf6c700e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>test-protocol.a59cc173f516589fa2bcb6d209f8d7e699990a82.de-de.xlf</t>
+  </si>
+  <si>
+    <t>using-ci-with-cli.aeb9bf03ecb439e411bf19a7b3b234950e477308.de-de.xlf</t>
+  </si>
+  <si>
+    <t>docs\core\tutorials</t>
+  </si>
+  <si>
+    <t>aspnet-core.0ce12fb95da3389d420f8d760beddf56ba76296f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>docs\framework\docker</t>
+  </si>
+  <si>
+    <t>index.e068a173b9e0c4eb4561e3c8ef11a0ad3f5fe9d7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-10 22:02:34</t>
+  </si>
+  <si>
+    <t>docs\framework</t>
+  </si>
+  <si>
+    <t>index.e9afc9d665a11b202a45e0f2a7a130b8582edcab.de-de.xlf</t>
+  </si>
+  <si>
+    <t>docs\standard</t>
+  </si>
+  <si>
+    <t>ht-p2</t>
+  </si>
+  <si>
+    <t>assembly-format.28db1c2eee4969148649923b2c83a0f9d8295d92.de-de.xlf</t>
+  </si>
+  <si>
+    <t>async.3c115f3a785660b634cfc3d7818885703e4965aa.de-de.xlf</t>
+  </si>
+  <si>
+    <t>docs\standard\base-types</t>
+  </si>
+  <si>
+    <t>basic-string-operations.6ee636bae80b9d255320557a135d219a13065941.de-de.xlf</t>
+  </si>
+  <si>
+    <t>index.56cd399d5b6f858a76bd66ca94d84e5ab5c28ba1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>parsing-strings.76f17ccaf8b16766eb906d657216fb7cd537dee5.de-de.xlf</t>
+  </si>
+  <si>
+    <t>regex-examples.fe3792ccf9e541ce6747f3a5b296147f8a2a491f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>class-libraries.7dadda8f3a69f2786b36b28fcabb59abbadd8677.de-de.xlf</t>
+  </si>
+  <si>
+    <t>docs\standard\collections</t>
+  </si>
+  <si>
+    <t>commonly-used-collection-types.87b05596cbab370816c5e11832c8858aeaa2d9a1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>framework-libraries.a910059a62e8080f3edc3e6a3141c5392e5f4840.de-de.xlf</t>
+  </si>
+  <si>
+    <t>index.b8d322cca13b7303167b216a3efe71db4e1687a1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>app-types.0987f6c1d2b5234f56598b7a3697680f81a70fef.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-05 05:40:26</t>
+  </si>
+  <si>
+    <t>2016-11-09 00:42:47</t>
+  </si>
+  <si>
+    <t>reducing-dependencies.71640f63ca24d0088f5f9191f05950b16b59c636.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>sdk.9c3255d4577e69d6aee70730290944dc9d2da45d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>index.874b2218474cbbb7738dd697aef54bd275718c7c.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>using-mstest-on-windows.be87ab01f91967df5135e0aadaef93c5bf6ee893.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dotnet-new.1c4e72c8a865272c8db60fcd510833b3cc8c3f2b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>telemetry.1c2d2f66e2f7ddb65a3162d84b46390eaf6c700e.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>test-protocol.a59cc173f516589fa2bcb6d209f8d7e699990a82.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>using-ci-with-cli.aeb9bf03ecb439e411bf19a7b3b234950e477308.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>aspnet-core.0ce12fb95da3389d420f8d760beddf56ba76296f.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>index.e068a173b9e0c4eb4561e3c8ef11a0ad3f5fe9d7.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-10 14:14:48</t>
+  </si>
+  <si>
+    <t>index.e9afc9d665a11b202a45e0f2a7a130b8582edcab.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>assembly-format.28db1c2eee4969148649923b2c83a0f9d8295d92.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-10 17:47:10</t>
+  </si>
+  <si>
+    <t>async.3c115f3a785660b634cfc3d7818885703e4965aa.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>basic-string-operations.6ee636bae80b9d255320557a135d219a13065941.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>index.56cd399d5b6f858a76bd66ca94d84e5ab5c28ba1.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>parsing-strings.76f17ccaf8b16766eb906d657216fb7cd537dee5.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>regex-examples.fe3792ccf9e541ce6747f3a5b296147f8a2a491f.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>class-libraries.7dadda8f3a69f2786b36b28fcabb59abbadd8677.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>commonly-used-collection-types.87b05596cbab370816c5e11832c8858aeaa2d9a1.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>framework-libraries.a910059a62e8080f3edc3e6a3141c5392e5f4840.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>docs\standard\garbagecollection</t>
+  </si>
+  <si>
+    <t>unmanaged.bbfd2c5291e4fe5a7a8152017a43aa7a4e3e4b63.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>index.b8d322cca13b7303167b216a3efe71db4e1687a1.fr-fr.xlf</t>
+  </si>
+  <si>
     <t>app-types.0987f6c1d2b5234f56598b7a3697680f81a70fef.it-it.xlf</t>
   </si>
   <si>
@@ -294,33 +489,18 @@
     <t>2016-11-09 00:42:54</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>docs\core\deploying</t>
-  </si>
-  <si>
     <t>reducing-dependencies.71640f63ca24d0088f5f9191f05950b16b59c636.it-it.xlf</t>
   </si>
   <si>
     <t>sdk.9c3255d4577e69d6aee70730290944dc9d2da45d.it-it.xlf</t>
   </si>
   <si>
-    <t>docs\core\testing</t>
-  </si>
-  <si>
     <t>index.874b2218474cbbb7738dd697aef54bd275718c7c.it-it.xlf</t>
   </si>
   <si>
     <t>using-mstest-on-windows.be87ab01f91967df5135e0aadaef93c5bf6ee893.it-it.xlf</t>
   </si>
   <si>
-    <t>docs\core\tools</t>
-  </si>
-  <si>
     <t>dotnet-new.1c4e72c8a865272c8db60fcd510833b3cc8c3f2b.it-it.xlf</t>
   </si>
   <si>
@@ -333,42 +513,24 @@
     <t>using-ci-with-cli.aeb9bf03ecb439e411bf19a7b3b234950e477308.it-it.xlf</t>
   </si>
   <si>
-    <t>docs\core\tutorials</t>
-  </si>
-  <si>
     <t>aspnet-core.0ce12fb95da3389d420f8d760beddf56ba76296f.it-it.xlf</t>
   </si>
   <si>
-    <t>docs\framework\docker</t>
-  </si>
-  <si>
     <t>index.e068a173b9e0c4eb4561e3c8ef11a0ad3f5fe9d7.it-it.xlf</t>
   </si>
   <si>
     <t>2016-11-10 19:00:06</t>
   </si>
   <si>
-    <t>docs\framework</t>
-  </si>
-  <si>
     <t>index.e9afc9d665a11b202a45e0f2a7a130b8582edcab.it-it.xlf</t>
   </si>
   <si>
-    <t>docs\standard</t>
-  </si>
-  <si>
-    <t>ht-p2</t>
-  </si>
-  <si>
     <t>assembly-format.28db1c2eee4969148649923b2c83a0f9d8295d92.it-it.xlf</t>
   </si>
   <si>
     <t>async.3c115f3a785660b634cfc3d7818885703e4965aa.it-it.xlf</t>
   </si>
   <si>
-    <t>docs\standard\base-types</t>
-  </si>
-  <si>
     <t>basic-string-operations.6ee636bae80b9d255320557a135d219a13065941.it-it.xlf</t>
   </si>
   <si>
@@ -387,142 +549,16 @@
     <t>class-libraries.7dadda8f3a69f2786b36b28fcabb59abbadd8677.it-it.xlf</t>
   </si>
   <si>
-    <t>docs\standard\collections</t>
-  </si>
-  <si>
     <t>commonly-used-collection-types.87b05596cbab370816c5e11832c8858aeaa2d9a1.it-it.xlf</t>
   </si>
   <si>
     <t>framework-libraries.a910059a62e8080f3edc3e6a3141c5392e5f4840.it-it.xlf</t>
   </si>
   <si>
-    <t>docs\standard\garbagecollection</t>
-  </si>
-  <si>
     <t>unmanaged.bbfd2c5291e4fe5a7a8152017a43aa7a4e3e4b63.it-it.xlf</t>
   </si>
   <si>
     <t>index.b8d322cca13b7303167b216a3efe71db4e1687a1.it-it.xlf</t>
-  </si>
-  <si>
-    <t>app-types.0987f6c1d2b5234f56598b7a3697680f81a70fef.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-05 05:40:26</t>
-  </si>
-  <si>
-    <t>2016-11-09 00:42:47</t>
-  </si>
-  <si>
-    <t>reducing-dependencies.71640f63ca24d0088f5f9191f05950b16b59c636.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>sdk.9c3255d4577e69d6aee70730290944dc9d2da45d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>index.874b2218474cbbb7738dd697aef54bd275718c7c.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>using-mstest-on-windows.be87ab01f91967df5135e0aadaef93c5bf6ee893.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dotnet-new.1c4e72c8a865272c8db60fcd510833b3cc8c3f2b.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>telemetry.1c2d2f66e2f7ddb65a3162d84b46390eaf6c700e.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>test-protocol.a59cc173f516589fa2bcb6d209f8d7e699990a82.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>using-ci-with-cli.aeb9bf03ecb439e411bf19a7b3b234950e477308.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>aspnet-core.0ce12fb95da3389d420f8d760beddf56ba76296f.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>index.e068a173b9e0c4eb4561e3c8ef11a0ad3f5fe9d7.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-10 14:14:48</t>
-  </si>
-  <si>
-    <t>index.e9afc9d665a11b202a45e0f2a7a130b8582edcab.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>assembly-format.28db1c2eee4969148649923b2c83a0f9d8295d92.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-10 17:47:10</t>
-  </si>
-  <si>
-    <t>async.3c115f3a785660b634cfc3d7818885703e4965aa.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>basic-string-operations.6ee636bae80b9d255320557a135d219a13065941.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>index.56cd399d5b6f858a76bd66ca94d84e5ab5c28ba1.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>parsing-strings.76f17ccaf8b16766eb906d657216fb7cd537dee5.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>regex-examples.fe3792ccf9e541ce6747f3a5b296147f8a2a491f.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>class-libraries.7dadda8f3a69f2786b36b28fcabb59abbadd8677.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>commonly-used-collection-types.87b05596cbab370816c5e11832c8858aeaa2d9a1.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>framework-libraries.a910059a62e8080f3edc3e6a3141c5392e5f4840.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>unmanaged.bbfd2c5291e4fe5a7a8152017a43aa7a4e3e4b63.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>index.b8d322cca13b7303167b216a3efe71db4e1687a1.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>app-types.0987f6c1d2b5234f56598b7a3697680f81a70fef.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-05 05:46:09</t>
-  </si>
-  <si>
-    <t>2016-11-09 00:43:00</t>
-  </si>
-  <si>
-    <t>reducing-dependencies.71640f63ca24d0088f5f9191f05950b16b59c636.de-de.xlf</t>
-  </si>
-  <si>
-    <t>sdk.9c3255d4577e69d6aee70730290944dc9d2da45d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>index.874b2218474cbbb7738dd697aef54bd275718c7c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>using-mstest-on-windows.be87ab01f91967df5135e0aadaef93c5bf6ee893.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dotnet-new.1c4e72c8a865272c8db60fcd510833b3cc8c3f2b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>telemetry.1c2d2f66e2f7ddb65a3162d84b46390eaf6c700e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>test-protocol.a59cc173f516589fa2bcb6d209f8d7e699990a82.de-de.xlf</t>
-  </si>
-  <si>
-    <t>using-ci-with-cli.aeb9bf03ecb439e411bf19a7b3b234950e477308.de-de.xlf</t>
-  </si>
-  <si>
-    <t>aspnet-core.0ce12fb95da3389d420f8d760beddf56ba76296f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>index.b8d322cca13b7303167b216a3efe71db4e1687a1.de-de.xlf</t>
   </si>
   <si>
     <t>docs\about</t>
@@ -1137,8 +1173,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="it-it" displayName="it_it" ref="A1:P24" headerRowCount="1">
-  <autoFilter ref="A1:P24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:P23" headerRowCount="1">
+  <autoFilter ref="A1:P23"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -1193,9 +1229,9 @@
     <tableColumn id="2" name="Path And Name"/>
     <tableColumn id="3" name="Extension"/>
     <tableColumn id="4" name="Publish URL"/>
-    <tableColumn id="5" name="it-it"/>
+    <tableColumn id="5" name="de-de"/>
     <tableColumn id="6" name="fr-fr"/>
-    <tableColumn id="7" name="de-de"/>
+    <tableColumn id="7" name="it-it"/>
     <tableColumn id="8" name="es-es"/>
     <tableColumn id="9" name="ru-ru"/>
     <tableColumn id="10" name="zh-cn"/>
@@ -1234,8 +1270,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="de-de" displayName="de_de" ref="A1:P12" headerRowCount="1">
-  <autoFilter ref="A1:P12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="it-it" displayName="it_it" ref="A1:P24" headerRowCount="1">
+  <autoFilter ref="A1:P24"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -1903,7 +1939,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>17</v>
@@ -1932,7 +1968,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>16</v>
@@ -1944,7 +1980,7 @@
         <v>17</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>17</v>
@@ -1970,11 +2006,11 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C14" s="0" t="s">
         <v>16</v>
       </c>
@@ -1985,7 +2021,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>17</v>
@@ -2011,11 +2047,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C15" s="0" t="s">
         <v>16</v>
       </c>
@@ -2026,7 +2062,7 @@
         <v>17</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>17</v>
@@ -2052,11 +2088,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C16" s="0" t="s">
         <v>16</v>
       </c>
@@ -2067,7 +2103,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>17</v>
@@ -2096,7 +2132,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>16</v>
@@ -2108,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>17</v>
@@ -2134,11 +2170,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C18" s="0" t="s">
         <v>16</v>
       </c>
@@ -2149,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>17</v>
@@ -2175,11 +2211,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C19" s="0" t="s">
         <v>16</v>
       </c>
@@ -2190,7 +2226,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>17</v>
@@ -2216,11 +2252,11 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C20" s="0" t="s">
         <v>16</v>
       </c>
@@ -2231,7 +2267,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>17</v>
@@ -2257,11 +2293,11 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C21" s="0" t="s">
         <v>16</v>
       </c>
@@ -2272,7 +2308,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>17</v>
@@ -2298,11 +2334,11 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C22" s="0" t="s">
         <v>16</v>
       </c>
@@ -2313,7 +2349,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>17</v>
@@ -2339,10 +2375,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>16</v>
@@ -2354,7 +2390,7 @@
         <v>17</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>17</v>
@@ -2380,16 +2416,16 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>17</v>
@@ -2430,13 +2466,13 @@
         <v>16</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>17</v>
@@ -2445,7 +2481,7 @@
         <v>17</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>17</v>
@@ -2471,13 +2507,13 @@
         <v>16</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>17</v>
@@ -2486,7 +2522,7 @@
         <v>17</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>17</v>
@@ -2512,13 +2548,13 @@
         <v>16</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>17</v>
@@ -2527,7 +2563,7 @@
         <v>17</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>17</v>
@@ -2553,13 +2589,13 @@
         <v>16</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>17</v>
@@ -2568,7 +2604,7 @@
         <v>17</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>17</v>
@@ -2594,13 +2630,13 @@
         <v>16</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>17</v>
@@ -2609,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>17</v>
@@ -2647,8 +2683,8 @@
     <hyperlink ref="B20" display="docs\standard\class-libraries.md" r:id="rId20"/>
     <hyperlink ref="B21" display="docs\standard\collections\commonly-used-collection-types.md" r:id="rId21"/>
     <hyperlink ref="B22" display="docs\standard\framework-libraries.md" r:id="rId22"/>
-    <hyperlink ref="B23" display="docs\standard\garbagecollection\unmanaged.md" r:id="rId23"/>
-    <hyperlink ref="B24" display="index.md" r:id="rId24"/>
+    <hyperlink ref="B23" display="index.md" r:id="rId23"/>
+    <hyperlink ref="B24" display="docs\standard\garbagecollection\unmanaged.md" r:id="rId24"/>
     <hyperlink ref="B25" display="docs\about\products.md" r:id="rId25"/>
     <hyperlink ref="B26" display="docs\core\tutorials\cli-console-app-tutorial-advanced.md" r:id="rId26"/>
     <hyperlink ref="B27" display="docs\core\tutorials\managing-package-dependency-versions.md" r:id="rId27"/>
@@ -2749,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>85</v>
@@ -2758,7 +2794,7 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>18</v>
@@ -2767,10 +2803,10 @@
         <v>59</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -2808,7 +2844,7 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>18</v>
@@ -2817,10 +2853,10 @@
         <v>14</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -2858,7 +2894,7 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
@@ -2867,10 +2903,10 @@
         <v>19</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -2908,7 +2944,7 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>18</v>
@@ -2917,10 +2953,10 @@
         <v>21</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -2958,7 +2994,7 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>18</v>
@@ -2967,10 +3003,10 @@
         <v>23</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -3008,7 +3044,7 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>18</v>
@@ -3017,10 +3053,10 @@
         <v>25</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -3058,7 +3094,7 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>18</v>
@@ -3067,10 +3103,10 @@
         <v>27</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -3108,7 +3144,7 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>18</v>
@@ -3117,10 +3153,10 @@
         <v>29</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -3158,7 +3194,7 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>18</v>
@@ -3167,10 +3203,10 @@
         <v>31</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -3208,7 +3244,7 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>18</v>
@@ -3217,10 +3253,10 @@
         <v>33</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -3258,7 +3294,7 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>18</v>
@@ -3267,10 +3303,10 @@
         <v>35</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -3308,7 +3344,7 @@
         <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>18</v>
@@ -3317,10 +3353,10 @@
         <v>61</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>90</v>
@@ -3358,7 +3394,7 @@
         <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>18</v>
@@ -3367,10 +3403,10 @@
         <v>63</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -3408,7 +3444,7 @@
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>18</v>
@@ -3417,10 +3453,10 @@
         <v>65</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -3458,7 +3494,7 @@
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>18</v>
@@ -3467,10 +3503,10 @@
         <v>23</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -3508,7 +3544,7 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>18</v>
@@ -3517,10 +3553,10 @@
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>90</v>
@@ -3540,7 +3576,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>16</v>
@@ -3558,19 +3594,19 @@
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -3590,7 +3626,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>16</v>
@@ -3608,19 +3644,19 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -3640,7 +3676,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>16</v>
@@ -3658,19 +3694,19 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -3708,7 +3744,7 @@
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>18</v>
@@ -3717,10 +3753,10 @@
         <v>23</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -3740,7 +3776,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>16</v>
@@ -3758,19 +3794,19 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -3790,7 +3826,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>16</v>
@@ -3808,19 +3844,19 @@
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -3840,7 +3876,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>16</v>
@@ -3858,19 +3894,19 @@
         <v>91</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>90</v>
@@ -3890,7 +3926,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>16</v>
@@ -3899,7 +3935,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>111</v>
@@ -3908,19 +3944,19 @@
         <v>91</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>90</v>
@@ -3940,7 +3976,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>16</v>
@@ -3958,19 +3994,19 @@
         <v>91</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>90</v>
@@ -3990,7 +4026,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>16</v>
@@ -3999,7 +4035,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>111</v>
@@ -4008,19 +4044,19 @@
         <v>91</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>90</v>
@@ -4058,7 +4094,7 @@
         <v>91</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>18</v>
@@ -4067,10 +4103,10 @@
         <v>23</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>90</v>
@@ -4108,7 +4144,7 @@
         <v>91</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>18</v>
@@ -4117,10 +4153,10 @@
         <v>67</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>90</v>
@@ -4290,7 +4326,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4299,7 +4335,7 @@
     <col min="1" max="1" width="33.4939814976283" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
     <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
-    <col min="4" max="4" width="30.4697984967913" customWidth="1"/>
+    <col min="4" max="4" width="24.3927917480469" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
@@ -4966,7 +5002,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>16</v>
@@ -4990,13 +5026,13 @@
         <v>88</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>112</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -5016,7 +5052,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>16</v>
@@ -5040,13 +5076,13 @@
         <v>88</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>113</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -5066,7 +5102,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>16</v>
@@ -5090,13 +5126,13 @@
         <v>88</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>115</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -5166,7 +5202,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>16</v>
@@ -5190,13 +5226,13 @@
         <v>88</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>117</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -5216,7 +5252,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>16</v>
@@ -5234,19 +5270,19 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>88</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -5266,7 +5302,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>16</v>
@@ -5284,19 +5320,19 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>88</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -5316,7 +5352,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>16</v>
@@ -5325,7 +5361,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>111</v>
@@ -5334,19 +5370,19 @@
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>88</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -5366,7 +5402,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>16</v>
@@ -5384,19 +5420,19 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>88</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -5416,7 +5452,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>16</v>
@@ -5425,28 +5461,28 @@
         <v>17</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>88</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -5461,56 +5497,6 @@
         <v>91</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N24" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O24" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P24" s="0" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5558,10 +5544,8 @@
     <hyperlink ref="I21" display="commonly-used-collection-types.md" r:id="rId41"/>
     <hyperlink ref="A22" display="framework-libraries.md" r:id="rId42"/>
     <hyperlink ref="I22" display="framework-libraries.md" r:id="rId43"/>
-    <hyperlink ref="A23" display="unmanaged.md" r:id="rId44"/>
-    <hyperlink ref="I23" display="unmanaged.md" r:id="rId45"/>
-    <hyperlink ref="A24" display="index.md" r:id="rId46"/>
-    <hyperlink ref="I24" display="index.md" r:id="rId47"/>
+    <hyperlink ref="A23" display="index.md" r:id="rId44"/>
+    <hyperlink ref="I23" display="index.md" r:id="rId45"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -5666,19 +5650,19 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -5716,19 +5700,19 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -5766,19 +5750,19 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -5816,19 +5800,19 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -5866,19 +5850,19 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -5916,19 +5900,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -5966,19 +5950,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -6016,19 +6000,19 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -6066,19 +6050,19 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -6116,19 +6100,19 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -6166,19 +6150,19 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -6216,19 +6200,19 @@
         <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>90</v>
@@ -6248,7 +6232,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>16</v>
@@ -6266,19 +6250,19 @@
         <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -6298,7 +6282,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>16</v>
@@ -6316,19 +6300,19 @@
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -6348,7 +6332,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>16</v>
@@ -6366,19 +6350,19 @@
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -6416,19 +6400,19 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>90</v>
@@ -6448,7 +6432,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>16</v>
@@ -6466,19 +6450,19 @@
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -6498,7 +6482,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>16</v>
@@ -6516,19 +6500,19 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -6548,7 +6532,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>16</v>
@@ -6566,19 +6550,19 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -6598,7 +6582,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>16</v>
@@ -6607,7 +6591,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>111</v>
@@ -6616,19 +6600,19 @@
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -6648,7 +6632,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>16</v>
@@ -6666,19 +6650,19 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -6698,7 +6682,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>16</v>
@@ -6707,7 +6691,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>111</v>
@@ -6716,19 +6700,19 @@
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -6766,19 +6750,19 @@
         <v>91</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>90</v>
@@ -6854,21 +6838,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.4538029261998" customWidth="1"/>
+    <col min="1" max="1" width="33.4939814976283" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
     <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
-    <col min="4" max="4" width="19.5802917480469" customWidth="1"/>
+    <col min="4" max="4" width="30.4697984967913" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
-    <col min="9" max="9" width="27.4538029261998" customWidth="1"/>
+    <col min="9" max="9" width="33.4939814976283" customWidth="1"/>
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="32.0967516217913" customWidth="1"/>
     <col min="12" max="12" width="19.298205784389" customWidth="1"/>
@@ -6948,19 +6932,19 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -6998,19 +6982,19 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -7048,19 +7032,19 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -7098,19 +7082,19 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -7148,19 +7132,19 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -7198,19 +7182,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -7248,19 +7232,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -7298,19 +7282,19 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -7348,19 +7332,19 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -7398,19 +7382,19 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -7439,7 +7423,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>85</v>
@@ -7448,33 +7432,633 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P12" s="0" t="s">
+      <c r="H13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="P24" s="0" t="s">
         <v>90</v>
       </c>
     </row>
@@ -7502,6 +8086,30 @@
     <hyperlink ref="I11" display="aspnet-core.md" r:id="rId21"/>
     <hyperlink ref="A12" display="index.md" r:id="rId22"/>
     <hyperlink ref="I12" display="index.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="index.md" r:id="rId24"/>
+    <hyperlink ref="I13" display="index.md" r:id="rId25"/>
+    <hyperlink ref="A14" display="assembly-format.md" r:id="rId26"/>
+    <hyperlink ref="I14" display="assembly-format.md" r:id="rId27"/>
+    <hyperlink ref="A15" display="async.md" r:id="rId28"/>
+    <hyperlink ref="I15" display="async.md" r:id="rId29"/>
+    <hyperlink ref="A16" display="basic-string-operations.md" r:id="rId30"/>
+    <hyperlink ref="I16" display="basic-string-operations.md" r:id="rId31"/>
+    <hyperlink ref="A17" display="index.md" r:id="rId32"/>
+    <hyperlink ref="I17" display="index.md" r:id="rId33"/>
+    <hyperlink ref="A18" display="parsing-strings.md" r:id="rId34"/>
+    <hyperlink ref="I18" display="parsing-strings.md" r:id="rId35"/>
+    <hyperlink ref="A19" display="regex-examples.md" r:id="rId36"/>
+    <hyperlink ref="I19" display="regex-examples.md" r:id="rId37"/>
+    <hyperlink ref="A20" display="class-libraries.md" r:id="rId38"/>
+    <hyperlink ref="I20" display="class-libraries.md" r:id="rId39"/>
+    <hyperlink ref="A21" display="commonly-used-collection-types.md" r:id="rId40"/>
+    <hyperlink ref="I21" display="commonly-used-collection-types.md" r:id="rId41"/>
+    <hyperlink ref="A22" display="framework-libraries.md" r:id="rId42"/>
+    <hyperlink ref="I22" display="framework-libraries.md" r:id="rId43"/>
+    <hyperlink ref="A23" display="unmanaged.md" r:id="rId44"/>
+    <hyperlink ref="I23" display="unmanaged.md" r:id="rId45"/>
+    <hyperlink ref="A24" display="index.md" r:id="rId46"/>
+    <hyperlink ref="I24" display="index.md" r:id="rId47"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -7597,7 +8205,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>85</v>
@@ -7606,19 +8214,19 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -7656,19 +8264,19 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -7706,19 +8314,19 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -7756,19 +8364,19 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -7806,19 +8414,19 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -7856,19 +8464,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -7906,19 +8514,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -7956,19 +8564,19 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -8006,19 +8614,19 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -8056,19 +8664,19 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -8106,19 +8714,19 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -8156,19 +8764,19 @@
         <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>90</v>
@@ -8206,19 +8814,19 @@
         <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -8256,19 +8864,19 @@
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -8306,19 +8914,19 @@
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -8356,19 +8964,19 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>90</v>
@@ -8388,7 +8996,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>16</v>
@@ -8406,19 +9014,19 @@
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -8438,7 +9046,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>16</v>
@@ -8456,19 +9064,19 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -8488,7 +9096,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>16</v>
@@ -8506,19 +9114,19 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -8556,19 +9164,19 @@
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -8588,7 +9196,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>16</v>
@@ -8606,19 +9214,19 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -8638,7 +9246,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>16</v>
@@ -8656,19 +9264,19 @@
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -8688,7 +9296,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>16</v>
@@ -8706,19 +9314,19 @@
         <v>91</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>90</v>
@@ -8738,7 +9346,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>16</v>
@@ -8747,7 +9355,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>111</v>
@@ -8756,19 +9364,19 @@
         <v>91</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>90</v>
@@ -8788,7 +9396,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>16</v>
@@ -8806,19 +9414,19 @@
         <v>91</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>90</v>
@@ -8838,7 +9446,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>16</v>
@@ -8847,7 +9455,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>111</v>
@@ -8856,19 +9464,19 @@
         <v>91</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>90</v>
@@ -8906,19 +9514,19 @@
         <v>91</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>90</v>
@@ -8956,19 +9564,19 @@
         <v>91</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>90</v>
@@ -9139,7 +9747,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>85</v>
@@ -9148,19 +9756,19 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -9198,19 +9806,19 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -9248,19 +9856,19 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -9298,19 +9906,19 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -9348,19 +9956,19 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -9398,19 +10006,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -9448,19 +10056,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -9498,19 +10106,19 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -9548,19 +10156,19 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -9598,19 +10206,19 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -9648,19 +10256,19 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -9698,19 +10306,19 @@
         <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>90</v>
@@ -9748,19 +10356,19 @@
         <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -9798,19 +10406,19 @@
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -9848,19 +10456,19 @@
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -9898,19 +10506,19 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>90</v>
@@ -9930,7 +10538,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>16</v>
@@ -9948,19 +10556,19 @@
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -9980,7 +10588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>16</v>
@@ -9998,19 +10606,19 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -10030,7 +10638,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>16</v>
@@ -10048,19 +10656,19 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -10098,19 +10706,19 @@
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -10130,7 +10738,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>16</v>
@@ -10148,19 +10756,19 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -10180,7 +10788,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>16</v>
@@ -10198,19 +10806,19 @@
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -10230,7 +10838,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>16</v>
@@ -10248,19 +10856,19 @@
         <v>91</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>90</v>
@@ -10280,7 +10888,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>16</v>
@@ -10289,7 +10897,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>111</v>
@@ -10298,19 +10906,19 @@
         <v>91</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>90</v>
@@ -10330,7 +10938,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>16</v>
@@ -10348,19 +10956,19 @@
         <v>91</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>90</v>
@@ -10380,7 +10988,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>16</v>
@@ -10389,7 +10997,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>111</v>
@@ -10398,19 +11006,19 @@
         <v>91</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>90</v>
@@ -10448,19 +11056,19 @@
         <v>91</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>90</v>
@@ -10498,19 +11106,19 @@
         <v>91</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>90</v>
@@ -10690,19 +11298,19 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -10740,19 +11348,19 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -10790,19 +11398,19 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -10840,19 +11448,19 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -10890,19 +11498,19 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -10940,19 +11548,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -10990,19 +11598,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -11040,19 +11648,19 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -11090,19 +11698,19 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -11140,19 +11748,19 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -11190,19 +11798,19 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -11240,19 +11848,19 @@
         <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>90</v>
@@ -11272,7 +11880,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>16</v>
@@ -11290,19 +11898,19 @@
         <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -11322,7 +11930,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>16</v>
@@ -11340,19 +11948,19 @@
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -11372,7 +11980,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>16</v>
@@ -11390,19 +11998,19 @@
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -11440,19 +12048,19 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>90</v>
@@ -11472,7 +12080,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>16</v>
@@ -11490,19 +12098,19 @@
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -11522,7 +12130,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>16</v>
@@ -11540,19 +12148,19 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -11572,7 +12180,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>16</v>
@@ -11590,19 +12198,19 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -11622,7 +12230,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>16</v>
@@ -11631,7 +12239,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>111</v>
@@ -11640,19 +12248,19 @@
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -11672,7 +12280,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>16</v>
@@ -11690,19 +12298,19 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -11722,7 +12330,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>16</v>
@@ -11731,7 +12339,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>111</v>
@@ -11740,19 +12348,19 @@
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -11790,19 +12398,19 @@
         <v>91</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>90</v>
@@ -11963,7 +12571,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>85</v>
@@ -11972,19 +12580,19 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -12022,19 +12630,19 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -12072,19 +12680,19 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -12122,19 +12730,19 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -12172,19 +12780,19 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -12222,19 +12830,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -12272,19 +12880,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -12322,19 +12930,19 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -12372,19 +12980,19 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -12422,19 +13030,19 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -12472,19 +13080,19 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -12522,19 +13130,19 @@
         <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>90</v>
@@ -12572,19 +13180,19 @@
         <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -12622,19 +13230,19 @@
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -12672,19 +13280,19 @@
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -12722,19 +13330,19 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>90</v>
@@ -12754,7 +13362,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>16</v>
@@ -12772,19 +13380,19 @@
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -12804,7 +13412,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>16</v>
@@ -12822,19 +13430,19 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -12854,7 +13462,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>16</v>
@@ -12872,19 +13480,19 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -12922,19 +13530,19 @@
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -12954,7 +13562,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>16</v>
@@ -12972,19 +13580,19 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -13004,7 +13612,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>16</v>
@@ -13022,19 +13630,19 @@
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -13054,7 +13662,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>16</v>
@@ -13072,19 +13680,19 @@
         <v>91</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>90</v>
@@ -13104,7 +13712,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>16</v>
@@ -13113,7 +13721,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>111</v>
@@ -13122,19 +13730,19 @@
         <v>91</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>90</v>
@@ -13154,7 +13762,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>16</v>
@@ -13172,19 +13780,19 @@
         <v>91</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>90</v>
@@ -13204,7 +13812,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>16</v>
@@ -13213,7 +13821,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>111</v>
@@ -13222,19 +13830,19 @@
         <v>91</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>90</v>
@@ -13272,19 +13880,19 @@
         <v>91</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>90</v>
@@ -13322,19 +13930,19 @@
         <v>91</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>90</v>
@@ -13505,7 +14113,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>85</v>
@@ -13514,19 +14122,19 @@
         <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>90</v>
@@ -13564,19 +14172,19 @@
         <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
@@ -13614,19 +14222,19 @@
         <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>90</v>
@@ -13664,19 +14272,19 @@
         <v>91</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>90</v>
@@ -13714,19 +14322,19 @@
         <v>91</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>90</v>
@@ -13764,19 +14372,19 @@
         <v>91</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>90</v>
@@ -13814,19 +14422,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>90</v>
@@ -13864,19 +14472,19 @@
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>90</v>
@@ -13914,19 +14522,19 @@
         <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>90</v>
@@ -13964,19 +14572,19 @@
         <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>90</v>
@@ -14014,19 +14622,19 @@
         <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>90</v>
@@ -14064,19 +14672,19 @@
         <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>90</v>
@@ -14114,19 +14722,19 @@
         <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>90</v>
@@ -14164,19 +14772,19 @@
         <v>91</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
@@ -14214,19 +14822,19 @@
         <v>91</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>90</v>
@@ -14264,19 +14872,19 @@
         <v>91</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>90</v>
@@ -14296,7 +14904,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>16</v>
@@ -14314,19 +14922,19 @@
         <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>90</v>
@@ -14346,7 +14954,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>16</v>
@@ -14364,19 +14972,19 @@
         <v>91</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>90</v>
@@ -14396,7 +15004,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>16</v>
@@ -14414,19 +15022,19 @@
         <v>91</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>90</v>
@@ -14464,19 +15072,19 @@
         <v>91</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>90</v>
@@ -14496,7 +15104,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>16</v>
@@ -14514,19 +15122,19 @@
         <v>91</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>90</v>
@@ -14546,7 +15154,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>16</v>
@@ -14564,19 +15172,19 @@
         <v>91</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>90</v>
@@ -14596,7 +15204,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>16</v>
@@ -14614,19 +15222,19 @@
         <v>91</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>90</v>
@@ -14646,7 +15254,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>16</v>
@@ -14655,7 +15263,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>111</v>
@@ -14664,19 +15272,19 @@
         <v>91</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>90</v>
@@ -14696,7 +15304,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>16</v>
@@ -14714,19 +15322,19 @@
         <v>91</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>90</v>
@@ -14746,7 +15354,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>16</v>
@@ -14755,7 +15363,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>111</v>
@@ -14764,19 +15372,19 @@
         <v>91</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>90</v>
@@ -14814,19 +15422,19 @@
         <v>91</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>90</v>
@@ -14864,19 +15472,19 @@
         <v>91</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>90</v>

--- a/ol-handback/dotnet/docs/master/handback-status.xlsx
+++ b/ol-handback/dotnet/docs/master/handback-status.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="768">
   <si>
     <t>File Name</t>
   </si>
@@ -753,7 +753,7 @@
     <t>assembly-format.28db1c2eee4969148649923b2c83a0f9d8295d92.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-11-10 17:47:10</t>
+    <t>2016-11-11 14:12:46</t>
   </si>
   <si>
     <t>async.3c115f3a785660b634cfc3d7818885703e4965aa.fr-fr.xlf</t>
@@ -876,6 +876,9 @@
     <t>assembly-format.28db1c2eee4969148649923b2c83a0f9d8295d92.it-it.xlf</t>
   </si>
   <si>
+    <t>2016-11-11 14:12:49</t>
+  </si>
+  <si>
     <t>async.3c115f3a785660b634cfc3d7818885703e4965aa.it-it.xlf</t>
   </si>
   <si>
@@ -888,9 +891,6 @@
     <t>parsing-strings.76f17ccaf8b16766eb906d657216fb7cd537dee5.it-it.xlf</t>
   </si>
   <si>
-    <t>2016-11-10 20:01:22</t>
-  </si>
-  <si>
     <t>regex-examples.fe3792ccf9e541ce6747f3a5b296147f8a2a491f.it-it.xlf</t>
   </si>
   <si>
@@ -957,6 +957,9 @@
     <t>assembly-format.28db1c2eee4969148649923b2c83a0f9d8295d92.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-11-11 14:12:53</t>
+  </si>
+  <si>
     <t>async.3c115f3a785660b634cfc3d7818885703e4965aa.de-de.xlf</t>
   </si>
   <si>
@@ -984,9 +987,6 @@
     <t>unmanaged.bbfd2c5291e4fe5a7a8152017a43aa7a4e3e4b63.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-11-11 11:43:07</t>
-  </si>
-  <si>
     <t>building-net-docker-images.243cc28898b1a68000245cc04d6177ebc2106744.es-es.xlf</t>
   </si>
   <si>
@@ -1176,6 +1176,9 @@
     <t>assembly-format.28db1c2eee4969148649923b2c83a0f9d8295d92.es-es.xlf</t>
   </si>
   <si>
+    <t>2016-11-11 14:12:56</t>
+  </si>
+  <si>
     <t>async.3c115f3a785660b634cfc3d7818885703e4965aa.es-es.xlf</t>
   </si>
   <si>
@@ -1296,6 +1299,9 @@
     <t>assembly-format.28db1c2eee4969148649923b2c83a0f9d8295d92.ru-ru.xlf</t>
   </si>
   <si>
+    <t>2016-11-11 14:12:59</t>
+  </si>
+  <si>
     <t>async.3c115f3a785660b634cfc3d7818885703e4965aa.ru-ru.xlf</t>
   </si>
   <si>
@@ -1515,6 +1521,9 @@
     <t>assembly-format.28db1c2eee4969148649923b2c83a0f9d8295d92.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-11-11 14:13:03</t>
+  </si>
+  <si>
     <t>async.3c115f3a785660b634cfc3d7818885703e4965aa.zh-cn.xlf</t>
   </si>
   <si>
@@ -1761,6 +1770,9 @@
     <t>assembly-format.28db1c2eee4969148649923b2c83a0f9d8295d92.zh-tw.xlf</t>
   </si>
   <si>
+    <t>2016-11-11 14:13:07</t>
+  </si>
+  <si>
     <t>async.3c115f3a785660b634cfc3d7818885703e4965aa.zh-tw.xlf</t>
   </si>
   <si>
@@ -2013,6 +2025,9 @@
     <t>assembly-format.28db1c2eee4969148649923b2c83a0f9d8295d92.ja-jp.xlf</t>
   </si>
   <si>
+    <t>2016-11-11 14:13:10</t>
+  </si>
+  <si>
     <t>async.3c115f3a785660b634cfc3d7818885703e4965aa.ja-jp.xlf</t>
   </si>
   <si>
@@ -2257,6 +2272,9 @@
   </si>
   <si>
     <t>assembly-format.28db1c2eee4969148649923b2c83a0f9d8295d92.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-11 14:13:14</t>
   </si>
   <si>
     <t>async.3c115f3a785660b634cfc3d7818885703e4965aa.ko-kr.xlf</t>
@@ -5959,7 +5977,7 @@
         <v>169</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>23</v>
@@ -5968,10 +5986,10 @@
         <v>21</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>173</v>
@@ -6009,7 +6027,7 @@
         <v>174</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>23</v>
@@ -6018,10 +6036,10 @@
         <v>24</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>173</v>
@@ -6059,7 +6077,7 @@
         <v>174</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>23</v>
@@ -6068,10 +6086,10 @@
         <v>24</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>173</v>
@@ -6109,7 +6127,7 @@
         <v>174</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>23</v>
@@ -6118,10 +6136,10 @@
         <v>142</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>173</v>
@@ -6159,7 +6177,7 @@
         <v>174</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>23</v>
@@ -6168,10 +6186,10 @@
         <v>26</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>173</v>
@@ -6209,7 +6227,7 @@
         <v>174</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>23</v>
@@ -6218,10 +6236,10 @@
         <v>28</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>173</v>
@@ -6259,7 +6277,7 @@
         <v>174</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>23</v>
@@ -6268,10 +6286,10 @@
         <v>30</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>173</v>
@@ -6309,7 +6327,7 @@
         <v>174</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>23</v>
@@ -6318,10 +6336,10 @@
         <v>24</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>173</v>
@@ -6359,7 +6377,7 @@
         <v>174</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>23</v>
@@ -6368,10 +6386,10 @@
         <v>33</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>173</v>
@@ -6409,7 +6427,7 @@
         <v>174</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>20</v>
@@ -6418,10 +6436,10 @@
         <v>14</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>173</v>
@@ -6459,7 +6477,7 @@
         <v>174</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>23</v>
@@ -6468,10 +6486,10 @@
         <v>24</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>173</v>
@@ -6509,7 +6527,7 @@
         <v>174</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>23</v>
@@ -6518,10 +6536,10 @@
         <v>36</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>173</v>
@@ -6559,7 +6577,7 @@
         <v>174</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>23</v>
@@ -6568,10 +6586,10 @@
         <v>38</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>173</v>
@@ -6609,7 +6627,7 @@
         <v>174</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>23</v>
@@ -6618,10 +6636,10 @@
         <v>24</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>173</v>
@@ -6659,7 +6677,7 @@
         <v>174</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>23</v>
@@ -6668,10 +6686,10 @@
         <v>41</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>173</v>
@@ -6709,7 +6727,7 @@
         <v>174</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>23</v>
@@ -6718,10 +6736,10 @@
         <v>24</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>173</v>
@@ -6759,7 +6777,7 @@
         <v>174</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>23</v>
@@ -6768,10 +6786,10 @@
         <v>44</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>173</v>
@@ -6809,7 +6827,7 @@
         <v>174</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>23</v>
@@ -6818,10 +6836,10 @@
         <v>46</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>173</v>
@@ -6859,7 +6877,7 @@
         <v>174</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>23</v>
@@ -6868,10 +6886,10 @@
         <v>48</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>173</v>
@@ -6909,7 +6927,7 @@
         <v>174</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>23</v>
@@ -6918,10 +6936,10 @@
         <v>50</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>173</v>
@@ -6959,7 +6977,7 @@
         <v>174</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>23</v>
@@ -6968,10 +6986,10 @@
         <v>52</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>173</v>
@@ -7009,7 +7027,7 @@
         <v>174</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>23</v>
@@ -7018,10 +7036,10 @@
         <v>54</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>173</v>
@@ -7059,7 +7077,7 @@
         <v>174</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>23</v>
@@ -7068,10 +7086,10 @@
         <v>24</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>173</v>
@@ -7109,7 +7127,7 @@
         <v>174</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>23</v>
@@ -7118,10 +7136,10 @@
         <v>57</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>173</v>
@@ -7159,7 +7177,7 @@
         <v>174</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>23</v>
@@ -7168,10 +7186,10 @@
         <v>59</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>173</v>
@@ -7209,7 +7227,7 @@
         <v>174</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>23</v>
@@ -7218,10 +7236,10 @@
         <v>61</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>173</v>
@@ -7259,7 +7277,7 @@
         <v>174</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>23</v>
@@ -7268,10 +7286,10 @@
         <v>63</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>173</v>
@@ -7309,7 +7327,7 @@
         <v>174</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>23</v>
@@ -7318,10 +7336,10 @@
         <v>65</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>173</v>
@@ -7359,7 +7377,7 @@
         <v>174</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>23</v>
@@ -7368,10 +7386,10 @@
         <v>67</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>173</v>
@@ -7409,7 +7427,7 @@
         <v>174</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>23</v>
@@ -7418,10 +7436,10 @@
         <v>69</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L31" s="0" t="s">
         <v>173</v>
@@ -7459,7 +7477,7 @@
         <v>174</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>23</v>
@@ -7468,10 +7486,10 @@
         <v>71</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L32" s="0" t="s">
         <v>173</v>
@@ -7509,7 +7527,7 @@
         <v>174</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>23</v>
@@ -7518,10 +7536,10 @@
         <v>73</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L33" s="0" t="s">
         <v>173</v>
@@ -7559,7 +7577,7 @@
         <v>174</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>23</v>
@@ -7568,10 +7586,10 @@
         <v>75</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L34" s="0" t="s">
         <v>173</v>
@@ -7609,7 +7627,7 @@
         <v>174</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>23</v>
@@ -7618,10 +7636,10 @@
         <v>77</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L35" s="0" t="s">
         <v>173</v>
@@ -7659,7 +7677,7 @@
         <v>174</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>23</v>
@@ -7668,10 +7686,10 @@
         <v>79</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L36" s="0" t="s">
         <v>173</v>
@@ -7709,7 +7727,7 @@
         <v>174</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>23</v>
@@ -7718,10 +7736,10 @@
         <v>81</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L37" s="0" t="s">
         <v>173</v>
@@ -7759,7 +7777,7 @@
         <v>174</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>23</v>
@@ -7768,10 +7786,10 @@
         <v>24</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L38" s="0" t="s">
         <v>173</v>
@@ -7809,7 +7827,7 @@
         <v>174</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>23</v>
@@ -7818,10 +7836,10 @@
         <v>84</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L39" s="0" t="s">
         <v>173</v>
@@ -7859,7 +7877,7 @@
         <v>174</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>23</v>
@@ -7868,10 +7886,10 @@
         <v>86</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="L40" s="0" t="s">
         <v>173</v>
@@ -7909,7 +7927,7 @@
         <v>174</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>23</v>
@@ -7918,10 +7936,10 @@
         <v>88</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="L41" s="0" t="s">
         <v>173</v>
@@ -7959,7 +7977,7 @@
         <v>174</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>23</v>
@@ -7968,10 +7986,10 @@
         <v>90</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="L42" s="0" t="s">
         <v>173</v>
@@ -8009,7 +8027,7 @@
         <v>174</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>23</v>
@@ -8018,10 +8036,10 @@
         <v>92</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="L43" s="0" t="s">
         <v>173</v>
@@ -8059,7 +8077,7 @@
         <v>174</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>23</v>
@@ -8068,10 +8086,10 @@
         <v>144</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="L44" s="0" t="s">
         <v>173</v>
@@ -8109,7 +8127,7 @@
         <v>174</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>23</v>
@@ -8118,10 +8136,10 @@
         <v>24</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L45" s="0" t="s">
         <v>173</v>
@@ -8159,7 +8177,7 @@
         <v>174</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>23</v>
@@ -8168,10 +8186,10 @@
         <v>95</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="L46" s="0" t="s">
         <v>173</v>
@@ -8209,7 +8227,7 @@
         <v>174</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>23</v>
@@ -8218,10 +8236,10 @@
         <v>44</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L47" s="0" t="s">
         <v>173</v>
@@ -8259,7 +8277,7 @@
         <v>174</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>23</v>
@@ -8268,10 +8286,10 @@
         <v>146</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="L48" s="0" t="s">
         <v>173</v>
@@ -8309,7 +8327,7 @@
         <v>174</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>23</v>
@@ -8318,10 +8336,10 @@
         <v>148</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="L49" s="0" t="s">
         <v>173</v>
@@ -8359,7 +8377,7 @@
         <v>174</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>100</v>
@@ -8368,10 +8386,10 @@
         <v>98</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L50" s="0" t="s">
         <v>173</v>
@@ -8409,7 +8427,7 @@
         <v>174</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>23</v>
@@ -8418,10 +8436,10 @@
         <v>101</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L51" s="0" t="s">
         <v>173</v>
@@ -8459,7 +8477,7 @@
         <v>174</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>23</v>
@@ -8468,10 +8486,10 @@
         <v>103</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L52" s="0" t="s">
         <v>173</v>
@@ -8509,7 +8527,7 @@
         <v>174</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>23</v>
@@ -8518,10 +8536,10 @@
         <v>24</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L53" s="0" t="s">
         <v>173</v>
@@ -8559,7 +8577,7 @@
         <v>174</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>23</v>
@@ -8568,10 +8586,10 @@
         <v>106</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="L54" s="0" t="s">
         <v>173</v>
@@ -8609,7 +8627,7 @@
         <v>174</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>23</v>
@@ -8618,10 +8636,10 @@
         <v>108</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L55" s="0" t="s">
         <v>173</v>
@@ -8659,7 +8677,7 @@
         <v>174</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>23</v>
@@ -8668,10 +8686,10 @@
         <v>24</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="L56" s="0" t="s">
         <v>173</v>
@@ -8709,7 +8727,7 @@
         <v>174</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>23</v>
@@ -8718,10 +8736,10 @@
         <v>24</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="L57" s="0" t="s">
         <v>173</v>
@@ -8759,7 +8777,7 @@
         <v>174</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>23</v>
@@ -8768,10 +8786,10 @@
         <v>24</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L58" s="0" t="s">
         <v>173</v>
@@ -8809,7 +8827,7 @@
         <v>174</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>23</v>
@@ -8818,10 +8836,10 @@
         <v>113</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>684</v>
+        <v>750</v>
       </c>
       <c r="L59" s="0" t="s">
         <v>173</v>
@@ -8859,7 +8877,7 @@
         <v>174</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>23</v>
@@ -8868,10 +8886,10 @@
         <v>115</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>684</v>
+        <v>750</v>
       </c>
       <c r="L60" s="0" t="s">
         <v>173</v>
@@ -8909,7 +8927,7 @@
         <v>174</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>23</v>
@@ -8918,10 +8936,10 @@
         <v>117</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>684</v>
+        <v>750</v>
       </c>
       <c r="L61" s="0" t="s">
         <v>173</v>
@@ -8959,7 +8977,7 @@
         <v>174</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>23</v>
@@ -8968,10 +8986,10 @@
         <v>24</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="L62" s="0" t="s">
         <v>173</v>
@@ -9009,7 +9027,7 @@
         <v>174</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>23</v>
@@ -9018,10 +9036,10 @@
         <v>120</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>684</v>
+        <v>750</v>
       </c>
       <c r="L63" s="0" t="s">
         <v>173</v>
@@ -9059,7 +9077,7 @@
         <v>174</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>23</v>
@@ -9068,10 +9086,10 @@
         <v>122</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>684</v>
+        <v>750</v>
       </c>
       <c r="L64" s="0" t="s">
         <v>173</v>
@@ -9109,7 +9127,7 @@
         <v>174</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>23</v>
@@ -9118,10 +9136,10 @@
         <v>124</v>
       </c>
       <c r="J65" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="K65" s="2" t="s">
         <v>750</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="L65" s="0" t="s">
         <v>173</v>
@@ -9159,7 +9177,7 @@
         <v>174</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>23</v>
@@ -9168,10 +9186,10 @@
         <v>126</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>684</v>
+        <v>750</v>
       </c>
       <c r="L66" s="0" t="s">
         <v>173</v>
@@ -9209,7 +9227,7 @@
         <v>174</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>23</v>
@@ -9218,10 +9236,10 @@
         <v>24</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L67" s="0" t="s">
         <v>173</v>
@@ -9259,7 +9277,7 @@
         <v>174</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>23</v>
@@ -9268,10 +9286,10 @@
         <v>24</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L68" s="0" t="s">
         <v>173</v>
@@ -9309,7 +9327,7 @@
         <v>174</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>23</v>
@@ -9318,10 +9336,10 @@
         <v>24</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L69" s="0" t="s">
         <v>173</v>
@@ -9359,7 +9377,7 @@
         <v>174</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>23</v>
@@ -9368,10 +9386,10 @@
         <v>131</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>684</v>
+        <v>750</v>
       </c>
       <c r="L70" s="0" t="s">
         <v>173</v>
@@ -9409,7 +9427,7 @@
         <v>174</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>23</v>
@@ -9418,10 +9436,10 @@
         <v>24</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L71" s="0" t="s">
         <v>173</v>
@@ -9459,7 +9477,7 @@
         <v>174</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>23</v>
@@ -9468,10 +9486,10 @@
         <v>134</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>684</v>
+        <v>750</v>
       </c>
       <c r="L72" s="0" t="s">
         <v>173</v>
@@ -9509,7 +9527,7 @@
         <v>174</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>23</v>
@@ -9518,10 +9536,10 @@
         <v>24</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L73" s="0" t="s">
         <v>173</v>
@@ -9559,7 +9577,7 @@
         <v>174</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>139</v>
@@ -9568,10 +9586,10 @@
         <v>137</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="L74" s="0" t="s">
         <v>173</v>
@@ -9609,7 +9627,7 @@
         <v>174</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>23</v>
@@ -9618,10 +9636,10 @@
         <v>140</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L75" s="0" t="s">
         <v>173</v>
@@ -9659,7 +9677,7 @@
         <v>174</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>23</v>
@@ -9668,10 +9686,10 @@
         <v>150</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="L76" s="0" t="s">
         <v>173</v>
@@ -14417,7 +14435,7 @@
         <v>283</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>173</v>
@@ -14455,7 +14473,7 @@
         <v>174</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>268</v>
@@ -14464,10 +14482,10 @@
         <v>115</v>
       </c>
       <c r="J16" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>173</v>
@@ -14505,7 +14523,7 @@
         <v>174</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>268</v>
@@ -14514,10 +14532,10 @@
         <v>117</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>173</v>
@@ -14555,7 +14573,7 @@
         <v>174</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>268</v>
@@ -14564,7 +14582,7 @@
         <v>24</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>281</v>
@@ -14605,7 +14623,7 @@
         <v>174</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>268</v>
@@ -14614,10 +14632,10 @@
         <v>120</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>173</v>
@@ -14667,7 +14685,7 @@
         <v>289</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>173</v>
@@ -14717,7 +14735,7 @@
         <v>290</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>173</v>
@@ -14767,7 +14785,7 @@
         <v>291</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>173</v>
@@ -14817,7 +14835,7 @@
         <v>292</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>173</v>
@@ -14867,7 +14885,7 @@
         <v>293</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>173</v>
@@ -15699,7 +15717,7 @@
         <v>310</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>173</v>
@@ -15737,7 +15755,7 @@
         <v>174</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>295</v>
@@ -15746,10 +15764,10 @@
         <v>115</v>
       </c>
       <c r="J16" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>173</v>
@@ -15787,7 +15805,7 @@
         <v>174</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>295</v>
@@ -15796,10 +15814,10 @@
         <v>117</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>173</v>
@@ -15837,7 +15855,7 @@
         <v>174</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>295</v>
@@ -15846,7 +15864,7 @@
         <v>24</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>308</v>
@@ -15887,7 +15905,7 @@
         <v>174</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>295</v>
@@ -15896,10 +15914,10 @@
         <v>120</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>173</v>
@@ -15937,7 +15955,7 @@
         <v>174</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>295</v>
@@ -15946,10 +15964,10 @@
         <v>122</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>173</v>
@@ -15987,7 +16005,7 @@
         <v>174</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>295</v>
@@ -15996,10 +16014,10 @@
         <v>124</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>173</v>
@@ -16037,7 +16055,7 @@
         <v>174</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>295</v>
@@ -16046,10 +16064,10 @@
         <v>126</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>173</v>
@@ -16087,7 +16105,7 @@
         <v>174</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>295</v>
@@ -16096,10 +16114,10 @@
         <v>131</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>173</v>
@@ -16137,7 +16155,7 @@
         <v>174</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>295</v>
@@ -16146,10 +16164,10 @@
         <v>134</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>173</v>
@@ -19181,7 +19199,7 @@
         <v>383</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="L59" s="0" t="s">
         <v>173</v>
@@ -19219,7 +19237,7 @@
         <v>174</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>322</v>
@@ -19228,10 +19246,10 @@
         <v>115</v>
       </c>
       <c r="J60" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="L60" s="0" t="s">
         <v>173</v>
@@ -19269,7 +19287,7 @@
         <v>174</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>322</v>
@@ -19278,10 +19296,10 @@
         <v>117</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="L61" s="0" t="s">
         <v>173</v>
@@ -19319,7 +19337,7 @@
         <v>174</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>322</v>
@@ -19328,7 +19346,7 @@
         <v>24</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>326</v>
@@ -19369,7 +19387,7 @@
         <v>174</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>322</v>
@@ -19378,10 +19396,10 @@
         <v>120</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="L63" s="0" t="s">
         <v>173</v>
@@ -19419,7 +19437,7 @@
         <v>174</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>322</v>
@@ -19428,10 +19446,10 @@
         <v>122</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="L64" s="0" t="s">
         <v>173</v>
@@ -19469,7 +19487,7 @@
         <v>174</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>322</v>
@@ -19478,10 +19496,10 @@
         <v>124</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="L65" s="0" t="s">
         <v>173</v>
@@ -19519,7 +19537,7 @@
         <v>174</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>322</v>
@@ -19528,10 +19546,10 @@
         <v>126</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="L66" s="0" t="s">
         <v>173</v>
@@ -19569,7 +19587,7 @@
         <v>174</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>322</v>
@@ -19578,7 +19596,7 @@
         <v>24</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>323</v>
@@ -19619,7 +19637,7 @@
         <v>174</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>322</v>
@@ -19628,7 +19646,7 @@
         <v>24</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>323</v>
@@ -19669,7 +19687,7 @@
         <v>174</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>322</v>
@@ -19678,7 +19696,7 @@
         <v>24</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>323</v>
@@ -19719,7 +19737,7 @@
         <v>174</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>322</v>
@@ -19728,10 +19746,10 @@
         <v>131</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="L70" s="0" t="s">
         <v>173</v>
@@ -19769,7 +19787,7 @@
         <v>174</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>322</v>
@@ -19778,7 +19796,7 @@
         <v>24</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>323</v>
@@ -19819,7 +19837,7 @@
         <v>174</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>322</v>
@@ -19828,10 +19846,10 @@
         <v>134</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="L72" s="0" t="s">
         <v>173</v>
@@ -19869,7 +19887,7 @@
         <v>174</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>322</v>
@@ -19878,7 +19896,7 @@
         <v>24</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>323</v>
@@ -19919,16 +19937,16 @@
         <v>174</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>323</v>
@@ -19969,7 +19987,7 @@
         <v>174</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>322</v>
@@ -19978,7 +19996,7 @@
         <v>140</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>323</v>
@@ -20019,7 +20037,7 @@
         <v>174</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>322</v>
@@ -20028,7 +20046,7 @@
         <v>150</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>329</v>
@@ -20305,19 +20323,19 @@
         <v>169</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>173</v>
@@ -20355,19 +20373,19 @@
         <v>174</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>173</v>
@@ -20405,19 +20423,19 @@
         <v>174</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>173</v>
@@ -20455,19 +20473,19 @@
         <v>174</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>173</v>
@@ -20505,19 +20523,19 @@
         <v>174</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>173</v>
@@ -20555,19 +20573,19 @@
         <v>174</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>173</v>
@@ -20605,19 +20623,19 @@
         <v>174</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>173</v>
@@ -20655,19 +20673,19 @@
         <v>174</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>173</v>
@@ -20705,19 +20723,19 @@
         <v>174</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>86</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>173</v>
@@ -20755,19 +20773,19 @@
         <v>174</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>173</v>
@@ -20805,19 +20823,19 @@
         <v>174</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>90</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>173</v>
@@ -20855,19 +20873,19 @@
         <v>174</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>92</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>173</v>
@@ -20905,19 +20923,19 @@
         <v>174</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>173</v>
@@ -20955,19 +20973,19 @@
         <v>174</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>146</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>173</v>
@@ -21005,19 +21023,19 @@
         <v>174</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>148</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>173</v>
@@ -21055,19 +21073,19 @@
         <v>174</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>173</v>
@@ -21105,19 +21123,19 @@
         <v>174</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>173</v>
@@ -21155,19 +21173,19 @@
         <v>174</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>173</v>
@@ -21205,19 +21223,19 @@
         <v>174</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>115</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>173</v>
@@ -21255,19 +21273,19 @@
         <v>174</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>117</v>
       </c>
       <c r="J21" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>173</v>
@@ -21305,19 +21323,19 @@
         <v>174</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>173</v>
@@ -21355,19 +21373,19 @@
         <v>174</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>120</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>173</v>
@@ -21405,19 +21423,19 @@
         <v>174</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>122</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>173</v>
@@ -21455,19 +21473,19 @@
         <v>174</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>124</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>173</v>
@@ -21505,19 +21523,19 @@
         <v>174</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>126</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>173</v>
@@ -21555,19 +21573,19 @@
         <v>174</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>131</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>173</v>
@@ -21605,19 +21623,19 @@
         <v>174</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>134</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>173</v>
@@ -21655,19 +21673,19 @@
         <v>174</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>150</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>173</v>
@@ -21847,19 +21865,19 @@
         <v>169</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>173</v>
@@ -21897,19 +21915,19 @@
         <v>174</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>173</v>
@@ -21947,19 +21965,19 @@
         <v>174</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>173</v>
@@ -21997,19 +22015,19 @@
         <v>174</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>173</v>
@@ -22047,19 +22065,19 @@
         <v>174</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>173</v>
@@ -22097,19 +22115,19 @@
         <v>174</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>173</v>
@@ -22147,19 +22165,19 @@
         <v>174</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>173</v>
@@ -22197,19 +22215,19 @@
         <v>174</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>173</v>
@@ -22247,19 +22265,19 @@
         <v>174</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J10" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>173</v>
@@ -22297,19 +22315,19 @@
         <v>174</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>173</v>
@@ -22347,19 +22365,19 @@
         <v>174</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>173</v>
@@ -22397,19 +22415,19 @@
         <v>174</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>173</v>
@@ -22447,19 +22465,19 @@
         <v>174</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>173</v>
@@ -22497,19 +22515,19 @@
         <v>174</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>173</v>
@@ -22547,19 +22565,19 @@
         <v>174</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>173</v>
@@ -22597,19 +22615,19 @@
         <v>174</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>173</v>
@@ -22647,19 +22665,19 @@
         <v>174</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>173</v>
@@ -22697,19 +22715,19 @@
         <v>174</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>173</v>
@@ -22747,19 +22765,19 @@
         <v>174</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>173</v>
@@ -22797,19 +22815,19 @@
         <v>174</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>173</v>
@@ -22847,19 +22865,19 @@
         <v>174</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>173</v>
@@ -22897,19 +22915,19 @@
         <v>174</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>173</v>
@@ -22947,19 +22965,19 @@
         <v>174</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>173</v>
@@ -22997,19 +23015,19 @@
         <v>174</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>173</v>
@@ -23047,19 +23065,19 @@
         <v>174</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>173</v>
@@ -23097,19 +23115,19 @@
         <v>174</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>173</v>
@@ -23147,19 +23165,19 @@
         <v>174</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>173</v>
@@ -23197,19 +23215,19 @@
         <v>174</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>173</v>
@@ -23247,19 +23265,19 @@
         <v>174</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>173</v>
@@ -23297,19 +23315,19 @@
         <v>174</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>69</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L31" s="0" t="s">
         <v>173</v>
@@ -23347,19 +23365,19 @@
         <v>174</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>71</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L32" s="0" t="s">
         <v>173</v>
@@ -23397,19 +23415,19 @@
         <v>174</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>73</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L33" s="0" t="s">
         <v>173</v>
@@ -23447,19 +23465,19 @@
         <v>174</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>75</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L34" s="0" t="s">
         <v>173</v>
@@ -23497,19 +23515,19 @@
         <v>174</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L35" s="0" t="s">
         <v>173</v>
@@ -23547,19 +23565,19 @@
         <v>174</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L36" s="0" t="s">
         <v>173</v>
@@ -23597,19 +23615,19 @@
         <v>174</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>81</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L37" s="0" t="s">
         <v>173</v>
@@ -23647,19 +23665,19 @@
         <v>174</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L38" s="0" t="s">
         <v>173</v>
@@ -23697,19 +23715,19 @@
         <v>174</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L39" s="0" t="s">
         <v>173</v>
@@ -23747,19 +23765,19 @@
         <v>174</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>86</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L40" s="0" t="s">
         <v>173</v>
@@ -23797,19 +23815,19 @@
         <v>174</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>88</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L41" s="0" t="s">
         <v>173</v>
@@ -23847,19 +23865,19 @@
         <v>174</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>90</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L42" s="0" t="s">
         <v>173</v>
@@ -23897,19 +23915,19 @@
         <v>174</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>92</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L43" s="0" t="s">
         <v>173</v>
@@ -23947,19 +23965,19 @@
         <v>174</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L44" s="0" t="s">
         <v>173</v>
@@ -23997,19 +24015,19 @@
         <v>174</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L45" s="0" t="s">
         <v>173</v>
@@ -24047,19 +24065,19 @@
         <v>174</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>95</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L46" s="0" t="s">
         <v>173</v>
@@ -24097,19 +24115,19 @@
         <v>174</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L47" s="0" t="s">
         <v>173</v>
@@ -24147,19 +24165,19 @@
         <v>174</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>146</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L48" s="0" t="s">
         <v>173</v>
@@ -24197,19 +24215,19 @@
         <v>174</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>148</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L49" s="0" t="s">
         <v>173</v>
@@ -24247,19 +24265,19 @@
         <v>174</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L50" s="0" t="s">
         <v>173</v>
@@ -24297,19 +24315,19 @@
         <v>174</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>101</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L51" s="0" t="s">
         <v>173</v>
@@ -24347,19 +24365,19 @@
         <v>174</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L52" s="0" t="s">
         <v>173</v>
@@ -24397,19 +24415,19 @@
         <v>174</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L53" s="0" t="s">
         <v>173</v>
@@ -24447,19 +24465,19 @@
         <v>174</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>106</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L54" s="0" t="s">
         <v>173</v>
@@ -24497,19 +24515,19 @@
         <v>174</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>108</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L55" s="0" t="s">
         <v>173</v>
@@ -24547,19 +24565,19 @@
         <v>174</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L56" s="0" t="s">
         <v>173</v>
@@ -24597,19 +24615,19 @@
         <v>174</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L57" s="0" t="s">
         <v>173</v>
@@ -24647,19 +24665,19 @@
         <v>174</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L58" s="0" t="s">
         <v>173</v>
@@ -24697,19 +24715,19 @@
         <v>174</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="L59" s="0" t="s">
         <v>173</v>
@@ -24747,19 +24765,19 @@
         <v>174</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>115</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="L60" s="0" t="s">
         <v>173</v>
@@ -24797,19 +24815,19 @@
         <v>174</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>117</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>439</v>
+        <v>499</v>
       </c>
       <c r="L61" s="0" t="s">
         <v>173</v>
@@ -24847,19 +24865,19 @@
         <v>174</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L62" s="0" t="s">
         <v>173</v>
@@ -24897,19 +24915,19 @@
         <v>174</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>120</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="L63" s="0" t="s">
         <v>173</v>
@@ -24947,19 +24965,19 @@
         <v>174</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>122</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="L64" s="0" t="s">
         <v>173</v>
@@ -24997,19 +25015,19 @@
         <v>174</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>124</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="L65" s="0" t="s">
         <v>173</v>
@@ -25047,19 +25065,19 @@
         <v>174</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>126</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="L66" s="0" t="s">
         <v>173</v>
@@ -25097,19 +25115,19 @@
         <v>174</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L67" s="0" t="s">
         <v>173</v>
@@ -25147,19 +25165,19 @@
         <v>174</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L68" s="0" t="s">
         <v>173</v>
@@ -25197,19 +25215,19 @@
         <v>174</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L69" s="0" t="s">
         <v>173</v>
@@ -25247,19 +25265,19 @@
         <v>174</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>131</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>439</v>
+        <v>499</v>
       </c>
       <c r="L70" s="0" t="s">
         <v>173</v>
@@ -25297,19 +25315,19 @@
         <v>174</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L71" s="0" t="s">
         <v>173</v>
@@ -25347,19 +25365,19 @@
         <v>174</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>134</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>439</v>
+        <v>499</v>
       </c>
       <c r="L72" s="0" t="s">
         <v>173</v>
@@ -25397,19 +25415,19 @@
         <v>174</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L73" s="0" t="s">
         <v>173</v>
@@ -25447,19 +25465,19 @@
         <v>174</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L74" s="0" t="s">
         <v>173</v>
@@ -25497,19 +25515,19 @@
         <v>174</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L75" s="0" t="s">
         <v>173</v>
@@ -25547,19 +25565,19 @@
         <v>174</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>150</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L76" s="0" t="s">
         <v>173</v>
@@ -25833,19 +25851,19 @@
         <v>169</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>173</v>
@@ -25883,19 +25901,19 @@
         <v>174</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>173</v>
@@ -25933,19 +25951,19 @@
         <v>174</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>173</v>
@@ -25983,19 +26001,19 @@
         <v>174</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>173</v>
@@ -26033,19 +26051,19 @@
         <v>174</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>173</v>
@@ -26083,19 +26101,19 @@
         <v>174</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>173</v>
@@ -26133,19 +26151,19 @@
         <v>174</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>173</v>
@@ -26183,19 +26201,19 @@
         <v>174</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>173</v>
@@ -26233,19 +26251,19 @@
         <v>174</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>173</v>
@@ -26283,19 +26301,19 @@
         <v>174</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>173</v>
@@ -26333,19 +26351,19 @@
         <v>174</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>173</v>
@@ -26383,19 +26401,19 @@
         <v>174</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>173</v>
@@ -26433,19 +26451,19 @@
         <v>174</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>173</v>
@@ -26483,19 +26501,19 @@
         <v>174</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>173</v>
@@ -26533,19 +26551,19 @@
         <v>174</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>173</v>
@@ -26583,19 +26601,19 @@
         <v>174</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>173</v>
@@ -26633,19 +26651,19 @@
         <v>174</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>173</v>
@@ -26683,19 +26701,19 @@
         <v>174</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>173</v>
@@ -26733,19 +26751,19 @@
         <v>174</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>173</v>
@@ -26783,19 +26801,19 @@
         <v>174</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>173</v>
@@ -26833,19 +26851,19 @@
         <v>174</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>173</v>
@@ -26883,19 +26901,19 @@
         <v>174</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>173</v>
@@ -26933,19 +26951,19 @@
         <v>174</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>173</v>
@@ -26983,19 +27001,19 @@
         <v>174</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>173</v>
@@ -27033,19 +27051,19 @@
         <v>174</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>173</v>
@@ -27083,19 +27101,19 @@
         <v>174</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>173</v>
@@ -27133,19 +27151,19 @@
         <v>174</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>173</v>
@@ -27183,19 +27201,19 @@
         <v>174</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>173</v>
@@ -27233,19 +27251,19 @@
         <v>174</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>173</v>
@@ -27283,19 +27301,19 @@
         <v>174</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>69</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L31" s="0" t="s">
         <v>173</v>
@@ -27333,19 +27351,19 @@
         <v>174</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>71</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L32" s="0" t="s">
         <v>173</v>
@@ -27383,19 +27401,19 @@
         <v>174</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>73</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L33" s="0" t="s">
         <v>173</v>
@@ -27433,19 +27451,19 @@
         <v>174</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>75</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L34" s="0" t="s">
         <v>173</v>
@@ -27483,19 +27501,19 @@
         <v>174</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L35" s="0" t="s">
         <v>173</v>
@@ -27533,19 +27551,19 @@
         <v>174</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L36" s="0" t="s">
         <v>173</v>
@@ -27583,19 +27601,19 @@
         <v>174</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>81</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L37" s="0" t="s">
         <v>173</v>
@@ -27633,19 +27651,19 @@
         <v>174</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L38" s="0" t="s">
         <v>173</v>
@@ -27683,19 +27701,19 @@
         <v>174</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L39" s="0" t="s">
         <v>173</v>
@@ -27733,19 +27751,19 @@
         <v>174</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>86</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L40" s="0" t="s">
         <v>173</v>
@@ -27783,19 +27801,19 @@
         <v>174</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>88</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L41" s="0" t="s">
         <v>173</v>
@@ -27833,19 +27851,19 @@
         <v>174</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>90</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L42" s="0" t="s">
         <v>173</v>
@@ -27883,19 +27901,19 @@
         <v>174</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>92</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L43" s="0" t="s">
         <v>173</v>
@@ -27933,19 +27951,19 @@
         <v>174</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="L44" s="0" t="s">
         <v>173</v>
@@ -27983,19 +28001,19 @@
         <v>174</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L45" s="0" t="s">
         <v>173</v>
@@ -28033,19 +28051,19 @@
         <v>174</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>95</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L46" s="0" t="s">
         <v>173</v>
@@ -28083,19 +28101,19 @@
         <v>174</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L47" s="0" t="s">
         <v>173</v>
@@ -28133,19 +28151,19 @@
         <v>174</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>146</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="L48" s="0" t="s">
         <v>173</v>
@@ -28183,19 +28201,19 @@
         <v>174</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>148</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="L49" s="0" t="s">
         <v>173</v>
@@ -28233,19 +28251,19 @@
         <v>174</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L50" s="0" t="s">
         <v>173</v>
@@ -28283,19 +28301,19 @@
         <v>174</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>101</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L51" s="0" t="s">
         <v>173</v>
@@ -28333,19 +28351,19 @@
         <v>174</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L52" s="0" t="s">
         <v>173</v>
@@ -28383,19 +28401,19 @@
         <v>174</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L53" s="0" t="s">
         <v>173</v>
@@ -28433,19 +28451,19 @@
         <v>174</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>106</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L54" s="0" t="s">
         <v>173</v>
@@ -28483,19 +28501,19 @@
         <v>174</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>108</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L55" s="0" t="s">
         <v>173</v>
@@ -28533,19 +28551,19 @@
         <v>174</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L56" s="0" t="s">
         <v>173</v>
@@ -28583,19 +28601,19 @@
         <v>174</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L57" s="0" t="s">
         <v>173</v>
@@ -28633,19 +28651,19 @@
         <v>174</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L58" s="0" t="s">
         <v>173</v>
@@ -28683,19 +28701,19 @@
         <v>174</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="L59" s="0" t="s">
         <v>173</v>
@@ -28733,19 +28751,19 @@
         <v>174</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>115</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="L60" s="0" t="s">
         <v>173</v>
@@ -28783,19 +28801,19 @@
         <v>174</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>117</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="L61" s="0" t="s">
         <v>173</v>
@@ -28833,19 +28851,19 @@
         <v>174</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L62" s="0" t="s">
         <v>173</v>
@@ -28883,19 +28901,19 @@
         <v>174</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>120</v>
       </c>
       <c r="J63" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="L63" s="0" t="s">
         <v>173</v>
@@ -28933,19 +28951,19 @@
         <v>174</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>122</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="L64" s="0" t="s">
         <v>173</v>
@@ -28983,19 +29001,19 @@
         <v>174</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>124</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="L65" s="0" t="s">
         <v>173</v>
@@ -29033,19 +29051,19 @@
         <v>174</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>126</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="L66" s="0" t="s">
         <v>173</v>
@@ -29083,19 +29101,19 @@
         <v>174</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L67" s="0" t="s">
         <v>173</v>
@@ -29133,19 +29151,19 @@
         <v>174</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L68" s="0" t="s">
         <v>173</v>
@@ -29183,19 +29201,19 @@
         <v>174</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L69" s="0" t="s">
         <v>173</v>
@@ -29233,19 +29251,19 @@
         <v>174</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>131</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="L70" s="0" t="s">
         <v>173</v>
@@ -29283,19 +29301,19 @@
         <v>174</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L71" s="0" t="s">
         <v>173</v>
@@ -29333,19 +29351,19 @@
         <v>174</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>134</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="L72" s="0" t="s">
         <v>173</v>
@@ -29383,19 +29401,19 @@
         <v>174</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L73" s="0" t="s">
         <v>173</v>
@@ -29433,19 +29451,19 @@
         <v>174</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L74" s="0" t="s">
         <v>173</v>
@@ -29483,19 +29501,19 @@
         <v>174</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L75" s="0" t="s">
         <v>173</v>
@@ -29533,19 +29551,19 @@
         <v>174</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>150</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="L76" s="0" t="s">
         <v>173</v>
@@ -29819,19 +29837,19 @@
         <v>169</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>173</v>
@@ -29869,19 +29887,19 @@
         <v>174</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>173</v>
@@ -29919,19 +29937,19 @@
         <v>174</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>598</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>173</v>
@@ -29969,19 +29987,19 @@
         <v>174</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>173</v>
@@ -30019,19 +30037,19 @@
         <v>174</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>601</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>173</v>
@@ -30069,19 +30087,19 @@
         <v>174</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>173</v>
@@ -30119,19 +30137,19 @@
         <v>174</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>173</v>
@@ -30169,19 +30187,19 @@
         <v>174</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>173</v>
@@ -30219,19 +30237,19 @@
         <v>174</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>173</v>
@@ -30269,19 +30287,19 @@
         <v>174</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>173</v>
@@ -30319,19 +30337,19 @@
         <v>174</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>173</v>
@@ -30369,19 +30387,19 @@
         <v>174</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>173</v>
@@ -30419,19 +30437,19 @@
         <v>174</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>173</v>
@@ -30469,19 +30487,19 @@
         <v>174</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>173</v>
@@ -30519,19 +30537,19 @@
         <v>174</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>173</v>
@@ -30569,19 +30587,19 @@
         <v>174</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>173</v>
@@ -30619,19 +30637,19 @@
         <v>174</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>173</v>
@@ -30669,19 +30687,19 @@
         <v>174</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>173</v>
@@ -30719,19 +30737,19 @@
         <v>174</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>173</v>
@@ -30769,19 +30787,19 @@
         <v>174</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>173</v>
@@ -30819,19 +30837,19 @@
         <v>174</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>173</v>
@@ -30869,19 +30887,19 @@
         <v>174</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>173</v>
@@ -30919,19 +30937,19 @@
         <v>174</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>173</v>
@@ -30969,19 +30987,19 @@
         <v>174</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>173</v>
@@ -31019,19 +31037,19 @@
         <v>174</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>173</v>
@@ -31069,19 +31087,19 @@
         <v>174</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>173</v>
@@ -31119,19 +31137,19 @@
         <v>174</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>173</v>
@@ -31169,19 +31187,19 @@
         <v>174</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>173</v>
@@ -31219,19 +31237,19 @@
         <v>174</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>173</v>
@@ -31269,19 +31287,19 @@
         <v>174</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>69</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L31" s="0" t="s">
         <v>173</v>
@@ -31319,19 +31337,19 @@
         <v>174</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>71</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L32" s="0" t="s">
         <v>173</v>
@@ -31369,19 +31387,19 @@
         <v>174</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>73</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L33" s="0" t="s">
         <v>173</v>
@@ -31419,19 +31437,19 @@
         <v>174</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>75</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L34" s="0" t="s">
         <v>173</v>
@@ -31469,19 +31487,19 @@
         <v>174</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L35" s="0" t="s">
         <v>173</v>
@@ -31519,19 +31537,19 @@
         <v>174</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L36" s="0" t="s">
         <v>173</v>
@@ -31569,19 +31587,19 @@
         <v>174</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>81</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L37" s="0" t="s">
         <v>173</v>
@@ -31619,19 +31637,19 @@
         <v>174</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L38" s="0" t="s">
         <v>173</v>
@@ -31669,19 +31687,19 @@
         <v>174</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L39" s="0" t="s">
         <v>173</v>
@@ -31719,19 +31737,19 @@
         <v>174</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>86</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="L40" s="0" t="s">
         <v>173</v>
@@ -31769,19 +31787,19 @@
         <v>174</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>88</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="L41" s="0" t="s">
         <v>173</v>
@@ -31819,19 +31837,19 @@
         <v>174</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>90</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="L42" s="0" t="s">
         <v>173</v>
@@ -31869,19 +31887,19 @@
         <v>174</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>92</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="L43" s="0" t="s">
         <v>173</v>
@@ -31919,19 +31937,19 @@
         <v>174</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="L44" s="0" t="s">
         <v>173</v>
@@ -31969,19 +31987,19 @@
         <v>174</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L45" s="0" t="s">
         <v>173</v>
@@ -32019,19 +32037,19 @@
         <v>174</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>95</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="L46" s="0" t="s">
         <v>173</v>
@@ -32069,19 +32087,19 @@
         <v>174</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L47" s="0" t="s">
         <v>173</v>
@@ -32119,19 +32137,19 @@
         <v>174</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>146</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="L48" s="0" t="s">
         <v>173</v>
@@ -32169,19 +32187,19 @@
         <v>174</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>148</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="L49" s="0" t="s">
         <v>173</v>
@@ -32219,19 +32237,19 @@
         <v>174</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L50" s="0" t="s">
         <v>173</v>
@@ -32269,19 +32287,19 @@
         <v>174</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>101</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L51" s="0" t="s">
         <v>173</v>
@@ -32319,19 +32337,19 @@
         <v>174</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L52" s="0" t="s">
         <v>173</v>
@@ -32369,19 +32387,19 @@
         <v>174</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L53" s="0" t="s">
         <v>173</v>
@@ -32419,19 +32437,19 @@
         <v>174</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>106</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="L54" s="0" t="s">
         <v>173</v>
@@ -32469,19 +32487,19 @@
         <v>174</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>108</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="L55" s="0" t="s">
         <v>173</v>
@@ -32519,19 +32537,19 @@
         <v>174</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="L56" s="0" t="s">
         <v>173</v>
@@ -32569,19 +32587,19 @@
         <v>174</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="L57" s="0" t="s">
         <v>173</v>
@@ -32619,19 +32637,19 @@
         <v>174</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L58" s="0" t="s">
         <v>173</v>
@@ -32669,19 +32687,19 @@
         <v>174</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="L59" s="0" t="s">
         <v>173</v>
@@ -32719,19 +32737,19 @@
         <v>174</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>115</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="L60" s="0" t="s">
         <v>173</v>
@@ -32769,19 +32787,19 @@
         <v>174</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>117</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="L61" s="0" t="s">
         <v>173</v>
@@ -32819,19 +32837,19 @@
         <v>174</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="L62" s="0" t="s">
         <v>173</v>
@@ -32869,19 +32887,19 @@
         <v>174</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>120</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="L63" s="0" t="s">
         <v>173</v>
@@ -32919,19 +32937,19 @@
         <v>174</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>122</v>
       </c>
       <c r="J64" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>601</v>
       </c>
       <c r="L64" s="0" t="s">
         <v>173</v>
@@ -32969,19 +32987,19 @@
         <v>174</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>124</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="L65" s="0" t="s">
         <v>173</v>
@@ -33019,19 +33037,19 @@
         <v>174</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>126</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="L66" s="0" t="s">
         <v>173</v>
@@ -33069,19 +33087,19 @@
         <v>174</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L67" s="0" t="s">
         <v>173</v>
@@ -33119,19 +33137,19 @@
         <v>174</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L68" s="0" t="s">
         <v>173</v>
@@ -33169,19 +33187,19 @@
         <v>174</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L69" s="0" t="s">
         <v>173</v>
@@ -33219,19 +33237,19 @@
         <v>174</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>131</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="L70" s="0" t="s">
         <v>173</v>
@@ -33269,19 +33287,19 @@
         <v>174</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L71" s="0" t="s">
         <v>173</v>
@@ -33319,19 +33337,19 @@
         <v>174</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>134</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="L72" s="0" t="s">
         <v>173</v>
@@ -33369,19 +33387,19 @@
         <v>174</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L73" s="0" t="s">
         <v>173</v>
@@ -33419,19 +33437,19 @@
         <v>174</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="L74" s="0" t="s">
         <v>173</v>
@@ -33469,19 +33487,19 @@
         <v>174</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L75" s="0" t="s">
         <v>173</v>
@@ -33519,19 +33537,19 @@
         <v>174</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>150</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="L76" s="0" t="s">
         <v>173</v>
